--- a/src/output.xlsx
+++ b/src/output.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="251">
   <si>
     <t>type</t>
   </si>
@@ -766,6 +766,12 @@
   </si>
   <si>
     <t>expectedML</t>
+  </si>
+  <si>
+    <t>A_8</t>
+  </si>
+  <si>
+    <t>A_9</t>
   </si>
 </sst>
 </file>
@@ -2300,28 +2306,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="82"/>
                 <c:pt idx="0">
-                  <c:v>4.1517701170199599</c:v>
+                  <c:v>8.4671858865874245</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4494941056212483</c:v>
+                  <c:v>15.112554407712347</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.112554407712347</c:v>
+                  <c:v>21.800658417719102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.386044247130645</c:v>
+                  <c:v>27.860064320964266</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.749059707566492</c:v>
+                  <c:v>32.798271666309653</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.477932645990709</c:v>
+                  <c:v>38.037972674071383</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.51294821615236</c:v>
+                  <c:v>43.587505976226396</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.428165274796221</c:v>
+                  <c:v>49.409955754126763</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>55.558915090374306</c:v>
@@ -2330,160 +2336,157 @@
                   <c:v>61.994949204578056</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68.675148886356666</c:v>
+                  <c:v>66.415466481354912</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>73.244458627472099</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>77.619460871374798</c:v>
+                  <c:v>79.979554303098908</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>82.339647734823032</c:v>
+                  <c:v>84.750815287405914</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>87.161982839988809</c:v>
+                  <c:v>89.624658817179281</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>92.087334794369738</c:v>
+                  <c:v>94.602127221416097</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>96.911754557529761</c:v>
+                  <c:v>99.322922110112657</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>101.83771453715902</c:v>
+                  <c:v>104.35250696420538</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>106.86729939125173</c:v>
+                  <c:v>109.22739282297586</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>111.74218525002222</c:v>
+                  <c:v>113.90362814704561</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>113.90362814704561</c:v>
+                  <c:v>117.75928996813434</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>117.75928996813434</c:v>
+                  <c:v>121.75227863459335</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>121.75227863459335</c:v>
+                  <c:v>123.20641444632253</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>124.6605502580517</c:v>
+                  <c:v>126.15481573616991</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>127.27245300332955</c:v>
+                  <c:v>129.290662523999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>131.26222782204744</c:v>
+                  <c:v>133.37537614220437</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>133.37537614220437</c:v>
+                  <c:v>137.60167278251825</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>137.60167278251825</c:v>
+                  <c:v>141.82796942283215</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>141.82796942283215</c:v>
+                  <c:v>143.94111774298909</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>143.94111774298909</c:v>
+                  <c:v>148.76553750614912</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>148.76553750614912</c:v>
+                  <c:v>153.79573038549015</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>153.79573038549015</c:v>
+                  <c:v>156.3105228125365</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>158.87803971468708</c:v>
+                  <c:v>161.77302164343217</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>161.77302164343217</c:v>
+                  <c:v>167.50704717807704</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>167.50704717807704</c:v>
+                  <c:v>173.18513438987659</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>173.18513438987659</c:v>
+                  <c:v>176.02417799577637</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>176.02417799577637</c:v>
+                  <c:v>181.70226520757592</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>181.70226520757592</c:v>
+                  <c:v>187.38035241937547</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>187.38035241937547</c:v>
+                  <c:v>190.27533434812057</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>193.17031627686566</c:v>
+                  <c:v>196.06529820561076</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>196.06529820561076</c:v>
+                  <c:v>201.85526206310098</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>201.85526206310098</c:v>
+                  <c:v>207.64522592059117</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>207.64522592059117</c:v>
+                  <c:v>210.54020784933627</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>210.54020784933627</c:v>
+                  <c:v>215.51767625357309</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>215.51767625357309</c:v>
+                  <c:v>220.59998558277002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>220.59998558277002</c:v>
+                  <c:v>223.16750248492059</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>223.16750248492059</c:v>
+                  <c:v>227.84043710049949</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>227.84043710049949</c:v>
+                  <c:v>232.82450692171804</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>232.82450692171804</c:v>
+                  <c:v>235.44518260272164</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>238.06585828372522</c:v>
+                  <c:v>240.63337518587579</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>240.63337518587579</c:v>
+                  <c:v>245.76884329392573</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>245.76884329392573</c:v>
+                  <c:v>251.01019465593291</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>251.01019465593291</c:v>
+                  <c:v>253.6846371410378</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>253.6846371410378</c:v>
+                  <c:v>258.87282972419194</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>258.87282972419194</c:v>
+                  <c:v>263.34937218456389</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>263.34937218456389</c:v>
+                  <c:v>265.76053973714676</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>268.32805663929736</c:v>
+                  <c:v>270.94873232030096</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>273.67746277400573</c:v>
+                  <c:v>276.35190525911065</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>276.35190525911065</c:v>
+                  <c:v>281.64702342521912</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>281.64702342521912</c:v>
+                  <c:v>286.99590839542896</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>286.99590839542896</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>292.18514330758023</c:v>
+                  <c:v>289.67035088053387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2838,250 +2841,238 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="82"/>
                 <c:pt idx="0">
-                  <c:v>4.6582551488694808</c:v>
+                  <c:v>14.027055617963855</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.421205313184375</c:v>
+                  <c:v>20.694399908778013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.414597046612077</c:v>
+                  <c:v>26.331315125191406</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.580987581576512</c:v>
+                  <c:v>32.525094608315015</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.313623344225228</c:v>
+                  <c:v>38.079231530207295</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.525094608315015</c:v>
+                  <c:v>43.987152285871332</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.079231530207295</c:v>
+                  <c:v>47.73554108100668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.573639493044922</c:v>
+                  <c:v>54.193985268648468</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.73554108100668</c:v>
+                  <c:v>59.580654665003813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.894809034490812</c:v>
+                  <c:v>65.200024009965716</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58.205127831807275</c:v>
+                  <c:v>71.016567256882425</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>63.785409839377266</c:v>
+                  <c:v>75.499363691237065</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>68.108295633424078</c:v>
+                  <c:v>83.174466400764672</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75.499363691237065</c:v>
+                  <c:v>89.275044299396001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>81.598378096372713</c:v>
+                  <c:v>94.128649274475322</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>86.244820183274854</c:v>
+                  <c:v>98.982254249554629</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>90.892912624422436</c:v>
+                  <c:v>103.83585922463395</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>95.746517599501757</c:v>
+                  <c:v>110.39193489500578</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>102.21799089960751</c:v>
+                  <c:v>115.28836221971669</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>107.07159587468684</c:v>
+                  <c:v>120.31221426432526</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>112.05210440516525</c:v>
+                  <c:v>123.50617089374367</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>115.28836221971669</c:v>
+                  <c:v>128.36133936231866</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>120.31221426432526</c:v>
+                  <c:v>133.47031494169187</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>125.08225919813563</c:v>
+                  <c:v>138.70958164570479</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>130.06433122210973</c:v>
+                  <c:v>143.08666854760173</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>135.21673717636284</c:v>
+                  <c:v>145.83772221399479</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>138.70958164570479</c:v>
+                  <c:v>149.08666169801117</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>143.08666854760173</c:v>
+                  <c:v>151.45344340746681</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>146.92070204200027</c:v>
+                  <c:v>153.53071823797293</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>150.16964152601662</c:v>
+                  <c:v>154.96383374826024</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>151.45344340746681</c:v>
+                  <c:v>158.31735357498744</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>153.53071823797293</c:v>
+                  <c:v>161.81931842305417</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>156.04681357626569</c:v>
+                  <c:v>163.78445602562039</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>158.31735357498744</c:v>
+                  <c:v>167.22501032360691</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>161.81931842305417</c:v>
+                  <c:v>169.74909685087758</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>163.78445602562039</c:v>
+                  <c:v>173.4611778526133</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>167.22501032360691</c:v>
+                  <c:v>176.4325103803973</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>169.74909685087758</c:v>
+                  <c:v>181.50361467287522</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>173.4611778526133</c:v>
+                  <c:v>184.95632947582811</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>176.4325103803973</c:v>
+                  <c:v>190.55363619035103</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>181.50361467287522</c:v>
+                  <c:v>194.31331688295518</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>184.95632947582811</c:v>
+                  <c:v>199.46676516620539</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>190.55363619035103</c:v>
+                  <c:v>202.87335691103584</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>194.31331688295518</c:v>
+                  <c:v>206.54304986688879</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>197.76377330641432</c:v>
+                  <c:v>212.04758930066822</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>202.87335691103584</c:v>
+                  <c:v>215.67272269189436</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>206.54304986688879</c:v>
+                  <c:v>221.26724986242496</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>212.04758930066822</c:v>
+                  <c:v>226.55585347230146</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>217.50756916982084</c:v>
+                  <c:v>230.04913224539223</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>221.26724986242496</c:v>
+                  <c:v>233.6742656366184</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>224.85286161251042</c:v>
+                  <c:v>239.04512637651746</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>230.04913224539223</c:v>
+                  <c:v>242.62570020311682</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>233.6742656366184</c:v>
+                  <c:v>246.20627402971618</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>237.25483946321776</c:v>
+                  <c:v>251.98260074949411</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>242.62570020311682</c:v>
+                  <c:v>257.85117358551696</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>248.13171626964217</c:v>
+                  <c:v>261.79430418161382</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>251.98260074949411</c:v>
+                  <c:v>265.33101332958449</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>255.8796082874685</c:v>
+                  <c:v>270.48341928383758</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>261.79430418161382</c:v>
+                  <c:v>273.84770984353497</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>265.33101332958449</c:v>
+                  <c:v>278.873212242389</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>270.48341928383758</c:v>
+                  <c:v>282.32262633685104</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>273.84770984353497</c:v>
+                  <c:v>285.64296535717</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>277.126790007718</c:v>
+                  <c:v>290.54651526336119</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>282.32262633685104</c:v>
+                  <c:v>294.8704433864051</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>287.34595721696104</c:v>
+                  <c:v>297.47088051271464</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>290.54651526336119</c:v>
+                  <c:v>299.8843933055411</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>293.49491655320861</c:v>
+                  <c:v>304.28693040711767</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>297.47088051271464</c:v>
+                  <c:v>307.27546136335405</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>299.8843933055411</c:v>
+                  <c:v>311.75825779770872</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>304.28693040711767</c:v>
+                  <c:v>316.57060391665209</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>308.76972684147228</c:v>
+                  <c:v>319.72338855068438</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>311.75825779770872</c:v>
+                  <c:v>324.20670614953758</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>316.57060391665209</c:v>
+                  <c:v>327.52704516985654</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>319.72338855068438</c:v>
+                  <c:v>332.76778850661537</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>324.20670614953758</c:v>
+                  <c:v>337.80249814494391</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>329.3173320831562</c:v>
+                  <c:v>341.08383668862069</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>332.76778850661537</c:v>
+                  <c:v>346.27967301775374</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>337.80249814494391</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>342.78682854841173</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>348.02609525242468</c:v>
-                </c:pt>
-                <c:pt idx="80">
                   <c:v>351.43207897200682</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>354.79845418969848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3436,250 +3427,238 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="82"/>
                 <c:pt idx="0">
-                  <c:v>4.6310677341946569</c:v>
+                  <c:v>8.5554364083434038</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.108062035914386</c:v>
+                  <c:v>25.643291126343858</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.541646511525867</c:v>
+                  <c:v>21.631540537936729</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.631540537936729</c:v>
+                  <c:v>28.512041108661489</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.057905296932315</c:v>
+                  <c:v>34.652227509183291</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.541222895785513</c:v>
+                  <c:v>39.50635364876117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.228315813575257</c:v>
+                  <c:v>44.615937253382683</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.16652315892064</c:v>
+                  <c:v>50.031357557908528</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46.406224166682371</c:v>
+                  <c:v>55.625884728439125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.866204035835004</c:v>
+                  <c:v>61.494457564461968</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57.551326968365096</c:v>
+                  <c:v>67.643416900709511</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>63.512667085131426</c:v>
+                  <c:v>73.935088448812436</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>67.643416900709511</c:v>
+                  <c:v>78.258495407357799</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73.935088448812436</c:v>
+                  <c:v>84.938695089136417</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>78.258495407357799</c:v>
+                  <c:v>89.359820391161577</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>84.938695089136417</c:v>
+                  <c:v>96.288702399502569</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>89.359820391161577</c:v>
+                  <c:v>100.95842316734034</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>93.979075063388905</c:v>
+                  <c:v>105.67861003078858</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>98.598329735616218</c:v>
+                  <c:v>110.29838586751445</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>105.67861003078858</c:v>
+                  <c:v>117.12737801363164</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>110.29838586751445</c:v>
+                  <c:v>121.94971311879742</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>112.55806827251622</c:v>
+                  <c:v>124.20939552379919</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>119.53854556621454</c:v>
+                  <c:v>130.98844273880448</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>121.94971311879742</c:v>
+                  <c:v>133.00665225947392</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>126.46907792880094</c:v>
+                  <c:v>136.99642707819183</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>130.98844273880448</c:v>
+                  <c:v>140.84731155804377</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>135.0248617801434</c:v>
+                  <c:v>144.74536142501529</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>138.92186931811779</c:v>
+                  <c:v>147.66318773094721</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>142.86552107871321</c:v>
+                  <c:v>150.11300831717324</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>146.58020790294177</c:v>
+                  <c:v>152.31362541233833</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>148.88809802406021</c:v>
+                  <c:v>154.77213207354032</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>150.11300831717324</c:v>
+                  <c:v>156.34822037793228</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>152.31362541233833</c:v>
+                  <c:v>159.75420409751442</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>154.77213207354032</c:v>
+                  <c:v>163.11736546746494</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>158.05121223772335</c:v>
+                  <c:v>166.52334918704707</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>161.41437360767387</c:v>
+                  <c:v>169.72060652495634</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>163.11736546746494</c:v>
+                  <c:v>171.64604876488232</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>166.52334918704707</c:v>
+                  <c:v>175.36177791810798</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>169.72060652495634</c:v>
+                  <c:v>179.35155273682588</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>173.57149100480828</c:v>
+                  <c:v>184.12385605013</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>177.33334321615641</c:v>
+                  <c:v>188.89833088217813</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>179.35155273682588</c:v>
+                  <c:v>191.7373744880779</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>184.12385605013</c:v>
+                  <c:v>197.24973138933569</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>186.38353845513177</c:v>
+                  <c:v>199.41117428635911</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>191.7373744880779</c:v>
+                  <c:v>204.38864269059593</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>197.24973138933569</c:v>
+                  <c:v>208.96125314020222</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>199.41117428635911</c:v>
+                  <c:v>211.22093554520399</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>204.38864269059593</c:v>
+                  <c:v>215.5438213392508</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>211.22093554520399</c:v>
+                  <c:v>222.83213313009793</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>213.38237844222741</c:v>
+                  <c:v>225.56086358380273</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>215.5438213392508</c:v>
+                  <c:v>228.07565601084909</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>220.26461622794736</c:v>
+                  <c:v>233.21112411889902</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>225.56086358380273</c:v>
+                  <c:v>238.24131699824005</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>228.07565601084909</c:v>
+                  <c:v>240.75610942528641</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>233.21112411889902</c:v>
+                  <c:v>245.99746078729359</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>238.24131699824005</c:v>
+                  <c:v>251.34686692200196</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>243.37678510628999</c:v>
+                  <c:v>256.58882630925746</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>245.99746078729359</c:v>
+                  <c:v>259.26326879436238</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>251.34686692200196</c:v>
+                  <c:v>264.18862074874329</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>256.58882630925746</c:v>
+                  <c:v>269.16608915298013</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>259.26326879436238</c:v>
+                  <c:v>271.62876513017056</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>264.18862074874329</c:v>
+                  <c:v>276.29848589800838</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>269.16608915298013</c:v>
+                  <c:v>280.96820666584614</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>271.62876513017056</c:v>
+                  <c:v>283.37937421842901</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>276.29848589800838</c:v>
+                  <c:v>288.25321774820236</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>280.96820666584614</c:v>
+                  <c:v>293.2306861524392</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>285.84205019561949</c:v>
+                  <c:v>298.15664613206849</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>288.25321774820236</c:v>
+                  <c:v>300.51673956379256</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>293.2306861524392</c:v>
+                  <c:v>305.08604930490799</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>298.15664613206849</c:v>
+                  <c:v>309.55599034829817</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>302.82636689990625</c:v>
+                  <c:v>314.53345875253501</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>307.29630794329643</c:v>
+                  <c:v>319.61681041072904</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>312.01866632548865</c:v>
+                  <c:v>324.38911372403317</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>314.53345875253501</c:v>
+                  <c:v>326.74920715575729</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>319.61681041072904</c:v>
+                  <c:v>331.72667555999413</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>324.38911372403317</c:v>
+                  <c:v>336.60051908976749</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>329.21188313294778</c:v>
+                  <c:v>341.78871167292164</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>334.137843112577</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>336.60051908976749</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>341.78871167292164</c:v>
-                </c:pt>
-                <c:pt idx="80">
                   <c:v>346.71901469003888</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>351.6466250239136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3694,11 +3673,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238720440"/>
-        <c:axId val="193232008"/>
+        <c:axId val="337623536"/>
+        <c:axId val="337623920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238720440"/>
+        <c:axId val="337623536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3741,12 +3720,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193232008"/>
+        <c:crossAx val="337623920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193232008"/>
+        <c:axId val="337623920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3853,7 +3832,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238720440"/>
+        <c:crossAx val="337623536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4510,16 +4489,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>477715</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295497</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>162753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>174380</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>605075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>48453</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4804,15 +4783,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q237"/>
+  <dimension ref="A1:P239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4839,7 +4818,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4847,13 +4826,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>24536</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -4874,7 +4853,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4882,13 +4861,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D3">
-        <v>47798</v>
+        <v>97480</v>
       </c>
       <c r="E3">
-        <v>344</v>
+        <v>625</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -4896,25 +4875,26 @@
       <c r="G3">
         <v>5</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <f>D2/$P$7</f>
-        <v>0</v>
+        <f t="shared" ref="K3:K65" si="0">D2/$P$7</f>
+        <v>2.1312153561069866</v>
+      </c>
+      <c r="L3">
+        <f>D69/$P$7</f>
+        <v>7.3022095108086953</v>
       </c>
       <c r="M3">
-        <f>D149/$P$7</f>
-        <v>13.341029416360783</v>
+        <f>D151/$P$7</f>
+        <v>19.108062035914386</v>
       </c>
       <c r="P3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4922,13 +4902,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D4">
-        <v>108789</v>
+        <v>173986</v>
       </c>
       <c r="E4">
-        <v>685</v>
+        <v>1007</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -4936,34 +4916,30 @@
       <c r="G4">
         <v>10</v>
       </c>
-      <c r="I4">
-        <f>B2</f>
-        <v>1</v>
-      </c>
       <c r="J4">
         <v>5</v>
       </c>
       <c r="K4">
-        <f>D3/$P$7</f>
-        <v>4.1517701170199599</v>
+        <f t="shared" ref="K4:K67" si="1">D3/$P$7</f>
+        <v>8.4671858865874245</v>
       </c>
       <c r="L4">
-        <f>D67/$P$7</f>
-        <v>4.6582551488694808</v>
+        <f t="shared" ref="L4:L67" si="2">D70/$P$7</f>
+        <v>14.027055617963855</v>
       </c>
       <c r="M4">
-        <f>D150/$P$7</f>
-        <v>4.6310677341946569</v>
+        <f t="shared" ref="M4:M67" si="3">D152/$P$7</f>
+        <v>8.5554364083434038</v>
       </c>
       <c r="O4" t="s">
         <v>240</v>
       </c>
       <c r="P4">
-        <f>D232/B232</f>
+        <f>D234/B234</f>
         <v>11556.552</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4971,13 +4947,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D5">
-        <v>173986</v>
+        <v>250984</v>
       </c>
       <c r="E5">
-        <v>1007</v>
+        <v>1357</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -4985,34 +4961,30 @@
       <c r="G5">
         <v>15</v>
       </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I68" si="0">B3</f>
-        <v>2</v>
-      </c>
       <c r="J5">
         <v>10</v>
       </c>
       <c r="K5">
-        <f>D4/$P$7</f>
-        <v>9.4494941056212483</v>
+        <f t="shared" si="1"/>
+        <v>15.112554407712347</v>
       </c>
       <c r="L5">
-        <f>D68/$P$7</f>
-        <v>10.421205313184375</v>
+        <f t="shared" si="2"/>
+        <v>20.694399908778013</v>
       </c>
       <c r="M5">
-        <f>D151/$P$7</f>
-        <v>19.108062035914386</v>
+        <f t="shared" si="3"/>
+        <v>25.643291126343858</v>
       </c>
       <c r="O5" t="s">
         <v>241</v>
       </c>
       <c r="P5">
-        <f>D233/B233</f>
+        <f>D235/B235</f>
         <v>11814.451428571429</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5020,13 +4992,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D6">
-        <v>234698</v>
+        <v>320744</v>
       </c>
       <c r="E6">
-        <v>1285</v>
+        <v>1655</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -5034,34 +5006,30 @@
       <c r="G6">
         <v>20</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
       <c r="J6">
         <v>15</v>
       </c>
       <c r="K6">
-        <f>D5/$P$7</f>
-        <v>15.112554407712347</v>
+        <f t="shared" si="1"/>
+        <v>21.800658417719102</v>
       </c>
       <c r="L6">
-        <f>D69/$P$7</f>
-        <v>16.414597046612077</v>
+        <f t="shared" si="2"/>
+        <v>26.331315125191406</v>
       </c>
       <c r="M6">
-        <f>D152/$P$7</f>
-        <v>15.541646511525867</v>
+        <f t="shared" si="3"/>
+        <v>21.631540537936729</v>
       </c>
       <c r="O6" t="s">
         <v>242</v>
       </c>
       <c r="P6">
-        <f>D234/B234</f>
+        <f>D236/B236</f>
         <v>11167.036</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5069,13 +5037,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D7">
-        <v>284928</v>
+        <v>377596</v>
       </c>
       <c r="E7">
-        <v>1504</v>
+        <v>1888</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -5083,24 +5051,20 @@
       <c r="G7">
         <v>25</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
       <c r="J7">
         <v>20</v>
       </c>
       <c r="K7">
-        <f>D6/$P$7</f>
-        <v>20.386044247130645</v>
+        <f t="shared" si="1"/>
+        <v>27.860064320964266</v>
       </c>
       <c r="L7">
-        <f>D70/$P$7</f>
-        <v>21.580987581576512</v>
+        <f t="shared" si="2"/>
+        <v>32.525094608315015</v>
       </c>
       <c r="M7">
-        <f>D153/$P$7</f>
-        <v>21.631540537936729</v>
+        <f t="shared" si="3"/>
+        <v>28.512041108661489</v>
       </c>
       <c r="O7" t="s">
         <v>245</v>
@@ -5110,7 +5074,7 @@
         <v>11512.67980952381</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5118,13 +5082,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D8">
-        <v>339370</v>
+        <v>437919</v>
       </c>
       <c r="E8">
-        <v>1732</v>
+        <v>2128</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -5132,24 +5096,20 @@
       <c r="G8">
         <v>30</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
       <c r="J8">
         <v>25</v>
       </c>
       <c r="K8">
-        <f>D7/$P$7</f>
-        <v>24.749059707566492</v>
+        <f t="shared" si="1"/>
+        <v>32.798271666309653</v>
       </c>
       <c r="L8">
-        <f>D71/$P$7</f>
-        <v>27.313623344225228</v>
+        <f t="shared" si="2"/>
+        <v>38.079231530207295</v>
       </c>
       <c r="M8">
-        <f>D154/$P$7</f>
-        <v>27.057905296932315</v>
+        <f t="shared" si="3"/>
+        <v>34.652227509183291</v>
       </c>
       <c r="O8" t="s">
         <v>246</v>
@@ -5159,96 +5119,88 @@
         <v>325.92984078013774</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D9">
-        <v>523976</v>
+        <v>501809</v>
       </c>
       <c r="E9">
-        <v>2459</v>
+        <v>2375</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="G9">
-        <v>45</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="J9">
         <v>30</v>
       </c>
       <c r="K9">
-        <f>D8/$P$7</f>
-        <v>29.477932645990709</v>
+        <f t="shared" si="1"/>
+        <v>38.037972674071383</v>
       </c>
       <c r="L9">
-        <f>D72/$P$7</f>
-        <v>32.525094608315015</v>
+        <f t="shared" si="2"/>
+        <v>43.987152285871332</v>
       </c>
       <c r="M9">
-        <f>D155/$P$7</f>
-        <v>31.541222895785513</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>39.50635364876117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D10">
-        <v>592076</v>
+        <v>568841</v>
       </c>
       <c r="E10">
-        <v>2714</v>
+        <v>2628</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="G10">
-        <v>50</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="J10">
         <v>45</v>
       </c>
       <c r="K10">
-        <f>D9/$P$7</f>
-        <v>45.51294821615236</v>
+        <f t="shared" si="1"/>
+        <v>43.587505976226396</v>
       </c>
       <c r="L10">
-        <f>D73/$P$7</f>
-        <v>38.079231530207295</v>
+        <f t="shared" si="2"/>
+        <v>47.73554108100668</v>
       </c>
       <c r="M10">
-        <f>D156/$P$7</f>
-        <v>36.228315813575257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>44.615937253382683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>289</v>
@@ -5260,37 +5212,33 @@
         <v>2888</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>55</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="J11">
         <v>50</v>
       </c>
       <c r="K11">
-        <f>D10/$P$7</f>
-        <v>51.428165274796221</v>
+        <f t="shared" si="1"/>
+        <v>49.409955754126763</v>
       </c>
       <c r="L11">
-        <f>D74/$P$7</f>
-        <v>41.573639493044922</v>
+        <f t="shared" si="2"/>
+        <v>54.193985268648468</v>
       </c>
       <c r="M11">
-        <f>D157/$P$7</f>
-        <v>41.16652315892064</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>50.031357557908528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>286</v>
@@ -5302,83 +5250,71 @@
         <v>3154</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G12">
-        <v>60</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="J12">
         <v>55</v>
       </c>
       <c r="K12">
-        <f>D11/$P$7</f>
+        <f t="shared" si="1"/>
         <v>55.558915090374306</v>
       </c>
       <c r="L12">
-        <f>D75/$P$7</f>
-        <v>47.73554108100668</v>
+        <f t="shared" si="2"/>
+        <v>59.580654665003813</v>
       </c>
       <c r="M12">
-        <f>D158/$P$7</f>
-        <v>46.406224166682371</v>
-      </c>
-      <c r="Q12">
-        <f>P8/P4</f>
-        <v>2.8203035021184323E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>55.625884728439125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D13">
-        <v>790635</v>
+        <v>764620</v>
       </c>
       <c r="E13">
-        <v>3425</v>
+        <v>3334</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G13">
-        <v>65</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="J13">
         <v>60</v>
       </c>
       <c r="K13">
-        <f>D12/$P$7</f>
+        <f t="shared" si="1"/>
         <v>61.994949204578056</v>
       </c>
       <c r="L13">
-        <f>D76/$P$7</f>
-        <v>52.894809034490812</v>
+        <f t="shared" si="2"/>
+        <v>65.200024009965716</v>
       </c>
       <c r="M13">
-        <f>D159/$P$7</f>
-        <v>51.866204035835004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>61.494457564461968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>281</v>
@@ -5390,113 +5326,101 @@
         <v>3608</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G14">
-        <v>70</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="J14">
         <v>65</v>
       </c>
       <c r="K14">
-        <f>D13/$P$7</f>
-        <v>68.675148886356666</v>
+        <f t="shared" si="1"/>
+        <v>66.415466481354912</v>
       </c>
       <c r="L14">
-        <f>D77/$P$7</f>
-        <v>58.205127831807275</v>
+        <f t="shared" si="2"/>
+        <v>71.016567256882425</v>
       </c>
       <c r="M14">
-        <f>D160/$P$7</f>
-        <v>57.551326968365096</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>67.643416900709511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D15">
-        <v>893608</v>
+        <v>920779</v>
       </c>
       <c r="E15">
-        <v>3787</v>
+        <v>3880</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G15">
-        <v>75</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="J15">
         <v>70</v>
       </c>
       <c r="K15">
-        <f>D14/$P$7</f>
+        <f t="shared" si="1"/>
         <v>73.244458627472099</v>
       </c>
       <c r="L15">
-        <f>D78/$P$7</f>
-        <v>63.785409839377266</v>
+        <f t="shared" si="2"/>
+        <v>75.499363691237065</v>
       </c>
       <c r="M15">
-        <f>D161/$P$7</f>
-        <v>63.512667085131426</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>73.935088448812436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D16">
-        <v>947950</v>
+        <v>975709</v>
       </c>
       <c r="E16">
-        <v>3973</v>
+        <v>4067</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G16">
-        <v>80</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="J16">
         <v>75</v>
       </c>
       <c r="K16">
-        <f>D15/$P$7</f>
-        <v>77.619460871374798</v>
+        <f t="shared" si="1"/>
+        <v>79.979554303098908</v>
       </c>
       <c r="L16">
-        <f>D79/$P$7</f>
-        <v>68.108295633424078</v>
+        <f t="shared" si="2"/>
+        <v>83.174466400764672</v>
       </c>
       <c r="M16">
-        <f>D162/$P$7</f>
-        <v>67.643416900709511</v>
+        <f t="shared" si="3"/>
+        <v>78.258495407357799</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -5504,41 +5428,37 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D17">
-        <v>1003468</v>
+        <v>1031820</v>
       </c>
       <c r="E17">
-        <v>4161</v>
+        <v>4256</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G17">
-        <v>85</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="J17">
         <v>80</v>
       </c>
       <c r="K17">
-        <f>D16/$P$7</f>
-        <v>82.339647734823032</v>
+        <f t="shared" si="1"/>
+        <v>84.750815287405914</v>
       </c>
       <c r="L17">
-        <f>D80/$P$7</f>
-        <v>75.499363691237065</v>
+        <f t="shared" si="2"/>
+        <v>89.275044299396001</v>
       </c>
       <c r="M17">
-        <f>D163/$P$7</f>
-        <v>73.935088448812436</v>
+        <f t="shared" si="3"/>
+        <v>84.938695089136417</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -5546,41 +5466,37 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D18">
-        <v>1060172</v>
+        <v>1089124</v>
       </c>
       <c r="E18">
-        <v>4351</v>
+        <v>4447</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G18">
-        <v>90</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="J18">
         <v>85</v>
       </c>
       <c r="K18">
-        <f>D17/$P$7</f>
-        <v>87.161982839988809</v>
+        <f t="shared" si="1"/>
+        <v>89.624658817179281</v>
       </c>
       <c r="L18">
-        <f>D81/$P$7</f>
-        <v>81.598378096372713</v>
+        <f t="shared" si="2"/>
+        <v>94.128649274475322</v>
       </c>
       <c r="M18">
-        <f>D164/$P$7</f>
-        <v>78.258495407357799</v>
+        <f t="shared" si="3"/>
+        <v>89.359820391161577</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -5588,41 +5504,37 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D19">
-        <v>1115714</v>
+        <v>1143473</v>
       </c>
       <c r="E19">
-        <v>4539</v>
+        <v>4633</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G19">
-        <v>95</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="J19">
         <v>90</v>
       </c>
       <c r="K19">
-        <f>D18/$P$7</f>
-        <v>92.087334794369738</v>
+        <f t="shared" si="1"/>
+        <v>94.602127221416097</v>
       </c>
       <c r="L19">
-        <f>D82/$P$7</f>
-        <v>86.244820183274854</v>
+        <f t="shared" si="2"/>
+        <v>98.982254249554629</v>
       </c>
       <c r="M19">
-        <f>D165/$P$7</f>
-        <v>84.938695089136417</v>
+        <f t="shared" si="3"/>
+        <v>96.288702399502569</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -5630,41 +5542,37 @@
         <v>6</v>
       </c>
       <c r="B20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D20">
-        <v>1172425</v>
+        <v>1201377</v>
       </c>
       <c r="E20">
-        <v>4729</v>
+        <v>4825</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G20">
-        <v>100</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="J20">
         <v>95</v>
       </c>
       <c r="K20">
-        <f>D19/$P$7</f>
-        <v>96.911754557529761</v>
+        <f t="shared" si="1"/>
+        <v>99.322922110112657</v>
       </c>
       <c r="L20">
-        <f>D83/$P$7</f>
-        <v>90.892912624422436</v>
+        <f t="shared" si="2"/>
+        <v>103.83585922463395</v>
       </c>
       <c r="M20">
-        <f>D166/$P$7</f>
-        <v>89.359820391161577</v>
+        <f t="shared" si="3"/>
+        <v>100.95842316734034</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -5672,41 +5580,37 @@
         <v>6</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D21">
-        <v>1230329</v>
+        <v>1257500</v>
       </c>
       <c r="E21">
-        <v>4921</v>
+        <v>5014</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G21">
-        <v>105</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21">
-        <f>D20/$P$7</f>
-        <v>101.83771453715902</v>
+        <f t="shared" si="1"/>
+        <v>104.35250696420538</v>
       </c>
       <c r="L21">
-        <f>D84/$P$7</f>
-        <v>95.746517599501757</v>
+        <f t="shared" si="2"/>
+        <v>110.39193489500578</v>
       </c>
       <c r="M21">
-        <f>D167/$P$7</f>
-        <v>93.979075063388905</v>
+        <f t="shared" si="3"/>
+        <v>105.67861003078858</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -5714,41 +5618,37 @@
         <v>6</v>
       </c>
       <c r="B22">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D22">
-        <v>1286452</v>
+        <v>1311336</v>
       </c>
       <c r="E22">
-        <v>5110</v>
+        <v>5199</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G22">
-        <v>110</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="J22">
         <v>105</v>
       </c>
       <c r="K22">
-        <f>D21/$P$7</f>
-        <v>106.86729939125173</v>
+        <f t="shared" si="1"/>
+        <v>109.22739282297586</v>
       </c>
       <c r="L22">
-        <f>D85/$P$7</f>
-        <v>102.21799089960751</v>
+        <f t="shared" si="2"/>
+        <v>115.28836221971669</v>
       </c>
       <c r="M22">
-        <f>D168/$P$7</f>
-        <v>98.598329735616218</v>
+        <f t="shared" si="3"/>
+        <v>110.29838586751445</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -5756,41 +5656,37 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D23">
-        <v>1311336</v>
+        <v>1355725</v>
       </c>
       <c r="E23">
-        <v>5199</v>
+        <v>5367</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G23">
-        <v>115</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="J23">
         <v>110</v>
       </c>
       <c r="K23">
-        <f>D22/$P$7</f>
-        <v>111.74218525002222</v>
+        <f t="shared" si="1"/>
+        <v>113.90362814704561</v>
       </c>
       <c r="L23">
-        <f>D86/$P$7</f>
-        <v>107.07159587468684</v>
+        <f t="shared" si="2"/>
+        <v>120.31221426432526</v>
       </c>
       <c r="M23">
-        <f>D169/$P$7</f>
-        <v>105.67861003078858</v>
+        <f t="shared" si="3"/>
+        <v>117.12737801363164</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -5798,41 +5694,37 @@
         <v>6</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D24">
-        <v>1355725</v>
+        <v>1401695</v>
       </c>
       <c r="E24">
-        <v>5367</v>
+        <v>5538</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G24">
-        <v>120</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="J24">
         <v>115</v>
       </c>
       <c r="K24">
-        <f>D23/$P$7</f>
-        <v>113.90362814704561</v>
+        <f t="shared" si="1"/>
+        <v>117.75928996813434</v>
       </c>
       <c r="L24">
-        <f>D87/$P$7</f>
-        <v>112.05210440516525</v>
+        <f t="shared" si="2"/>
+        <v>123.50617089374367</v>
       </c>
       <c r="M24">
-        <f>D170/$P$7</f>
-        <v>110.29838586751445</v>
+        <f t="shared" si="3"/>
+        <v>121.94971311879742</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -5840,41 +5732,37 @@
         <v>6</v>
       </c>
       <c r="B25">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D25">
-        <v>1401695</v>
+        <v>1418436</v>
       </c>
       <c r="E25">
-        <v>5538</v>
+        <v>5611</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G25">
-        <v>125</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="J25">
         <v>120</v>
       </c>
       <c r="K25">
-        <f>D24/$P$7</f>
-        <v>117.75928996813434</v>
+        <f t="shared" si="1"/>
+        <v>121.75227863459335</v>
       </c>
       <c r="L25">
-        <f>D88/$P$7</f>
-        <v>115.28836221971669</v>
+        <f t="shared" si="2"/>
+        <v>128.36133936231866</v>
       </c>
       <c r="M25">
-        <f>D171/$P$7</f>
-        <v>112.55806827251622</v>
+        <f t="shared" si="3"/>
+        <v>124.20939552379919</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -5882,41 +5770,37 @@
         <v>6</v>
       </c>
       <c r="B26">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D26">
-        <v>1435177</v>
+        <v>1452380</v>
       </c>
       <c r="E26">
-        <v>5684</v>
+        <v>5758</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G26">
-        <v>130</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="J26">
         <v>125</v>
       </c>
       <c r="K26">
-        <f>D25/$P$7</f>
-        <v>121.75227863459335</v>
+        <f t="shared" si="1"/>
+        <v>123.20641444632253</v>
       </c>
       <c r="L26">
-        <f>D89/$P$7</f>
-        <v>120.31221426432526</v>
+        <f t="shared" si="2"/>
+        <v>133.47031494169187</v>
       </c>
       <c r="M26">
-        <f>D172/$P$7</f>
-        <v>119.53854556621454</v>
+        <f t="shared" si="3"/>
+        <v>130.98844273880448</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -5924,41 +5808,37 @@
         <v>6</v>
       </c>
       <c r="B27">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D27">
-        <v>1465247</v>
+        <v>1488482</v>
       </c>
       <c r="E27">
-        <v>5822</v>
+        <v>5908</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27">
-        <v>135</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="J27">
         <v>130</v>
       </c>
       <c r="K27">
-        <f>D26/$P$7</f>
-        <v>124.6605502580517</v>
+        <f t="shared" si="1"/>
+        <v>126.15481573616991</v>
       </c>
       <c r="L27">
-        <f>D90/$P$7</f>
-        <v>125.08225919813563</v>
+        <f t="shared" si="2"/>
+        <v>138.70958164570479</v>
       </c>
       <c r="M27">
-        <f>D173/$P$7</f>
-        <v>121.94971311879742</v>
+        <f t="shared" si="3"/>
+        <v>133.00665225947392</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -5966,41 +5846,37 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D28">
-        <v>1511180</v>
+        <v>1535508</v>
       </c>
       <c r="E28">
-        <v>5993</v>
+        <v>6081</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G28">
-        <v>140</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="J28">
         <v>135</v>
       </c>
       <c r="K28">
-        <f>D27/$P$7</f>
-        <v>127.27245300332955</v>
+        <f t="shared" si="1"/>
+        <v>129.290662523999</v>
       </c>
       <c r="L28">
-        <f>D91/$P$7</f>
-        <v>130.06433122210973</v>
+        <f t="shared" si="2"/>
+        <v>143.08666854760173</v>
       </c>
       <c r="M28">
-        <f>D174/$P$7</f>
-        <v>126.46907792880094</v>
+        <f t="shared" si="3"/>
+        <v>136.99642707819183</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -6008,41 +5884,37 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D29">
-        <v>1535508</v>
+        <v>1584164</v>
       </c>
       <c r="E29">
-        <v>6081</v>
+        <v>6257</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G29">
-        <v>145</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="J29">
         <v>140</v>
       </c>
       <c r="K29">
-        <f>D28/$P$7</f>
-        <v>131.26222782204744</v>
+        <f t="shared" si="1"/>
+        <v>133.37537614220437</v>
       </c>
       <c r="L29">
-        <f>D92/$P$7</f>
-        <v>135.21673717636284</v>
+        <f t="shared" si="2"/>
+        <v>145.83772221399479</v>
       </c>
       <c r="M29">
-        <f>D175/$P$7</f>
-        <v>130.98844273880448</v>
+        <f t="shared" si="3"/>
+        <v>140.84731155804377</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -6050,41 +5922,37 @@
         <v>6</v>
       </c>
       <c r="B30">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D30">
-        <v>1584164</v>
+        <v>1632820</v>
       </c>
       <c r="E30">
-        <v>6257</v>
+        <v>6433</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G30">
-        <v>150</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="J30">
         <v>145</v>
       </c>
       <c r="K30">
-        <f>D29/$P$7</f>
-        <v>133.37537614220437</v>
+        <f t="shared" si="1"/>
+        <v>137.60167278251825</v>
       </c>
       <c r="L30">
-        <f>D93/$P$7</f>
-        <v>138.70958164570479</v>
+        <f t="shared" si="2"/>
+        <v>149.08666169801117</v>
       </c>
       <c r="M30">
-        <f>D176/$P$7</f>
-        <v>135.0248617801434</v>
+        <f t="shared" si="3"/>
+        <v>144.74536142501529</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -6092,41 +5960,37 @@
         <v>6</v>
       </c>
       <c r="B31">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D31">
-        <v>1632820</v>
+        <v>1657148</v>
       </c>
       <c r="E31">
-        <v>6433</v>
+        <v>6521</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G31">
-        <v>155</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="J31">
         <v>150</v>
       </c>
       <c r="K31">
-        <f>D30/$P$7</f>
-        <v>137.60167278251825</v>
+        <f t="shared" si="1"/>
+        <v>141.82796942283215</v>
       </c>
       <c r="L31">
-        <f>D94/$P$7</f>
-        <v>143.08666854760173</v>
+        <f t="shared" si="2"/>
+        <v>151.45344340746681</v>
       </c>
       <c r="M31">
-        <f>D177/$P$7</f>
-        <v>138.92186931811779</v>
+        <f t="shared" si="3"/>
+        <v>147.66318773094721</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -6134,41 +5998,37 @@
         <v>6</v>
       </c>
       <c r="B32">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D32">
-        <v>1657148</v>
+        <v>1712690</v>
       </c>
       <c r="E32">
-        <v>6521</v>
+        <v>6709</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G32">
-        <v>160</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="J32">
         <v>155</v>
       </c>
       <c r="K32">
-        <f>D31/$P$7</f>
-        <v>141.82796942283215</v>
+        <f t="shared" si="1"/>
+        <v>143.94111774298909</v>
       </c>
       <c r="L32">
-        <f>D95/$P$7</f>
-        <v>146.92070204200027</v>
+        <f t="shared" si="2"/>
+        <v>153.53071823797293</v>
       </c>
       <c r="M32">
-        <f>D178/$P$7</f>
-        <v>142.86552107871321</v>
+        <f t="shared" si="3"/>
+        <v>150.11300831717324</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -6176,41 +6036,37 @@
         <v>6</v>
       </c>
       <c r="B33">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C33">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D33">
-        <v>1712690</v>
+        <v>1770601</v>
       </c>
       <c r="E33">
-        <v>6709</v>
+        <v>6901</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G33">
-        <v>165</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="J33">
         <v>160</v>
       </c>
       <c r="K33">
-        <f>D32/$P$7</f>
-        <v>143.94111774298909</v>
+        <f t="shared" si="1"/>
+        <v>148.76553750614912</v>
       </c>
       <c r="L33">
-        <f>D96/$P$7</f>
-        <v>150.16964152601662</v>
+        <f t="shared" si="2"/>
+        <v>154.96383374826024</v>
       </c>
       <c r="M33">
-        <f>D179/$P$7</f>
-        <v>146.58020790294177</v>
+        <f t="shared" si="3"/>
+        <v>152.31362541233833</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -6218,41 +6074,37 @@
         <v>6</v>
       </c>
       <c r="B34">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D34">
-        <v>1770601</v>
+        <v>1799553</v>
       </c>
       <c r="E34">
-        <v>6901</v>
+        <v>6997</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G34">
-        <v>170</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="J34">
         <v>165</v>
       </c>
       <c r="K34">
-        <f>D33/$P$7</f>
-        <v>148.76553750614912</v>
+        <f t="shared" si="1"/>
+        <v>153.79573038549015</v>
       </c>
       <c r="L34">
-        <f>D97/$P$7</f>
-        <v>151.45344340746681</v>
+        <f t="shared" si="2"/>
+        <v>158.31735357498744</v>
       </c>
       <c r="M34">
-        <f>D180/$P$7</f>
-        <v>148.88809802406021</v>
+        <f t="shared" si="3"/>
+        <v>154.77213207354032</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -6260,41 +6112,37 @@
         <v>6</v>
       </c>
       <c r="B35">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D35">
-        <v>1829112</v>
+        <v>1862441</v>
       </c>
       <c r="E35">
-        <v>7094</v>
+        <v>7197</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G35">
-        <v>175</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="J35">
         <v>170</v>
       </c>
       <c r="K35">
-        <f>D34/$P$7</f>
-        <v>153.79573038549015</v>
+        <f t="shared" si="1"/>
+        <v>156.3105228125365</v>
       </c>
       <c r="L35">
-        <f>D98/$P$7</f>
-        <v>153.53071823797293</v>
+        <f t="shared" si="2"/>
+        <v>161.81931842305417</v>
       </c>
       <c r="M35">
-        <f>D181/$P$7</f>
-        <v>150.11300831717324</v>
+        <f t="shared" si="3"/>
+        <v>156.34822037793228</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -6302,41 +6150,37 @@
         <v>6</v>
       </c>
       <c r="B36">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D36">
-        <v>1862441</v>
+        <v>1928455</v>
       </c>
       <c r="E36">
-        <v>7197</v>
+        <v>7402</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G36">
-        <v>180</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="J36">
         <v>175</v>
       </c>
       <c r="K36">
-        <f>D35/$P$7</f>
-        <v>158.87803971468708</v>
+        <f t="shared" si="1"/>
+        <v>161.77302164343217</v>
       </c>
       <c r="L36">
-        <f>D99/$P$7</f>
-        <v>156.04681357626569</v>
+        <f t="shared" si="2"/>
+        <v>163.78445602562039</v>
       </c>
       <c r="M36">
-        <f>D182/$P$7</f>
-        <v>152.31362541233833</v>
+        <f t="shared" si="3"/>
+        <v>159.75420409751442</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -6344,41 +6188,37 @@
         <v>6</v>
       </c>
       <c r="B37">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D37">
-        <v>1928455</v>
+        <v>1993825</v>
       </c>
       <c r="E37">
-        <v>7402</v>
+        <v>7606</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G37">
-        <v>185</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="J37">
         <v>180</v>
       </c>
       <c r="K37">
-        <f>D36/$P$7</f>
-        <v>161.77302164343217</v>
+        <f t="shared" si="1"/>
+        <v>167.50704717807704</v>
       </c>
       <c r="L37">
-        <f>D100/$P$7</f>
-        <v>158.31735357498744</v>
+        <f t="shared" si="2"/>
+        <v>167.22501032360691</v>
       </c>
       <c r="M37">
-        <f>D183/$P$7</f>
-        <v>154.77213207354032</v>
+        <f t="shared" si="3"/>
+        <v>163.11736546746494</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -6386,41 +6226,37 @@
         <v>6</v>
       </c>
       <c r="B38">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D38">
-        <v>1993825</v>
+        <v>2026510</v>
       </c>
       <c r="E38">
-        <v>7606</v>
+        <v>7708</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G38">
-        <v>190</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="J38">
         <v>185</v>
       </c>
       <c r="K38">
-        <f>D37/$P$7</f>
-        <v>167.50704717807704</v>
+        <f t="shared" si="1"/>
+        <v>173.18513438987659</v>
       </c>
       <c r="L38">
-        <f>D101/$P$7</f>
-        <v>161.81931842305417</v>
+        <f t="shared" si="2"/>
+        <v>169.74909685087758</v>
       </c>
       <c r="M38">
-        <f>D184/$P$7</f>
-        <v>158.05121223772335</v>
+        <f t="shared" si="3"/>
+        <v>166.52334918704707</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -6428,41 +6264,37 @@
         <v>6</v>
       </c>
       <c r="B39">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D39">
-        <v>2026510</v>
+        <v>2091880</v>
       </c>
       <c r="E39">
-        <v>7708</v>
+        <v>7912</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G39">
-        <v>195</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="J39">
         <v>190</v>
       </c>
       <c r="K39">
-        <f>D38/$P$7</f>
-        <v>173.18513438987659</v>
+        <f t="shared" si="1"/>
+        <v>176.02417799577637</v>
       </c>
       <c r="L39">
-        <f>D102/$P$7</f>
-        <v>163.78445602562039</v>
+        <f t="shared" si="2"/>
+        <v>173.4611778526133</v>
       </c>
       <c r="M39">
-        <f>D185/$P$7</f>
-        <v>161.41437360767387</v>
+        <f t="shared" si="3"/>
+        <v>169.72060652495634</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -6470,41 +6302,37 @@
         <v>6</v>
       </c>
       <c r="B40">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D40">
-        <v>2091880</v>
+        <v>2157250</v>
       </c>
       <c r="E40">
-        <v>7912</v>
+        <v>8116</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G40">
-        <v>200</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="J40">
         <v>195</v>
       </c>
       <c r="K40">
-        <f>D39/$P$7</f>
-        <v>176.02417799577637</v>
+        <f t="shared" si="1"/>
+        <v>181.70226520757592</v>
       </c>
       <c r="L40">
-        <f>D103/$P$7</f>
-        <v>167.22501032360691</v>
+        <f t="shared" si="2"/>
+        <v>176.4325103803973</v>
       </c>
       <c r="M40">
-        <f>D186/$P$7</f>
-        <v>163.11736546746494</v>
+        <f t="shared" si="3"/>
+        <v>171.64604876488232</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -6512,41 +6340,37 @@
         <v>6</v>
       </c>
       <c r="B41">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C41">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D41">
-        <v>2157250</v>
+        <v>2190579</v>
       </c>
       <c r="E41">
-        <v>8116</v>
+        <v>8219</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G41">
-        <v>205</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="J41">
         <v>200</v>
       </c>
       <c r="K41">
-        <f>D40/$P$7</f>
-        <v>181.70226520757592</v>
+        <f t="shared" si="1"/>
+        <v>187.38035241937547</v>
       </c>
       <c r="L41">
-        <f>D104/$P$7</f>
-        <v>169.74909685087758</v>
+        <f t="shared" si="2"/>
+        <v>181.50361467287522</v>
       </c>
       <c r="M41">
-        <f>D187/$P$7</f>
-        <v>166.52334918704707</v>
+        <f t="shared" si="3"/>
+        <v>175.36177791810798</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -6554,41 +6378,37 @@
         <v>6</v>
       </c>
       <c r="B42">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C42">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D42">
-        <v>2223908</v>
+        <v>2257237</v>
       </c>
       <c r="E42">
-        <v>8322</v>
+        <v>8425</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G42">
-        <v>210</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="0"/>
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="J42">
         <v>205</v>
       </c>
       <c r="K42">
-        <f>D41/$P$7</f>
-        <v>187.38035241937547</v>
+        <f t="shared" si="1"/>
+        <v>190.27533434812057</v>
       </c>
       <c r="L42">
-        <f>D105/$P$7</f>
-        <v>173.4611778526133</v>
+        <f t="shared" si="2"/>
+        <v>184.95632947582811</v>
       </c>
       <c r="M42">
-        <f>D188/$P$7</f>
-        <v>169.72060652495634</v>
+        <f t="shared" si="3"/>
+        <v>179.35155273682588</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -6596,41 +6416,37 @@
         <v>6</v>
       </c>
       <c r="B43">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D43">
-        <v>2257237</v>
+        <v>2323895</v>
       </c>
       <c r="E43">
-        <v>8425</v>
+        <v>8631</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G43">
-        <v>215</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="J43">
         <v>210</v>
       </c>
       <c r="K43">
-        <f>D42/$P$7</f>
-        <v>193.17031627686566</v>
+        <f t="shared" si="1"/>
+        <v>196.06529820561076</v>
       </c>
       <c r="L43">
-        <f>D106/$P$7</f>
-        <v>176.4325103803973</v>
+        <f t="shared" si="2"/>
+        <v>190.55363619035103</v>
       </c>
       <c r="M43">
-        <f>D189/$P$7</f>
-        <v>173.57149100480828</v>
+        <f t="shared" si="3"/>
+        <v>184.12385605013</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -6638,41 +6454,37 @@
         <v>6</v>
       </c>
       <c r="B44">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D44">
-        <v>2323895</v>
+        <v>2390553</v>
       </c>
       <c r="E44">
-        <v>8631</v>
+        <v>8837</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G44">
-        <v>220</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="J44">
         <v>215</v>
       </c>
       <c r="K44">
-        <f>D43/$P$7</f>
-        <v>196.06529820561076</v>
+        <f t="shared" si="1"/>
+        <v>201.85526206310098</v>
       </c>
       <c r="L44">
-        <f>D107/$P$7</f>
-        <v>181.50361467287522</v>
+        <f t="shared" si="2"/>
+        <v>194.31331688295518</v>
       </c>
       <c r="M44">
-        <f>D190/$P$7</f>
-        <v>177.33334321615641</v>
+        <f t="shared" si="3"/>
+        <v>188.89833088217813</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -6680,41 +6492,37 @@
         <v>6</v>
       </c>
       <c r="B45">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D45">
-        <v>2390553</v>
+        <v>2423882</v>
       </c>
       <c r="E45">
-        <v>8837</v>
+        <v>8940</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G45">
-        <v>225</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="J45">
         <v>220</v>
       </c>
       <c r="K45">
-        <f>D44/$P$7</f>
-        <v>201.85526206310098</v>
+        <f t="shared" si="1"/>
+        <v>207.64522592059117</v>
       </c>
       <c r="L45">
-        <f>D108/$P$7</f>
-        <v>184.95632947582811</v>
+        <f t="shared" si="2"/>
+        <v>199.46676516620539</v>
       </c>
       <c r="M45">
-        <f>D191/$P$7</f>
-        <v>179.35155273682588</v>
+        <f t="shared" si="3"/>
+        <v>191.7373744880779</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -6722,41 +6530,37 @@
         <v>6</v>
       </c>
       <c r="B46">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D46">
-        <v>2423882</v>
+        <v>2481186</v>
       </c>
       <c r="E46">
-        <v>8940</v>
+        <v>9131</v>
       </c>
       <c r="F46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G46">
-        <v>230</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="J46">
         <v>225</v>
       </c>
       <c r="K46">
-        <f>D45/$P$7</f>
-        <v>207.64522592059117</v>
+        <f t="shared" si="1"/>
+        <v>210.54020784933627</v>
       </c>
       <c r="L46">
-        <f>D109/$P$7</f>
-        <v>190.55363619035103</v>
+        <f t="shared" si="2"/>
+        <v>202.87335691103584</v>
       </c>
       <c r="M46">
-        <f>D192/$P$7</f>
-        <v>184.12385605013</v>
+        <f t="shared" si="3"/>
+        <v>197.24973138933569</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -6764,41 +6568,37 @@
         <v>6</v>
       </c>
       <c r="B47">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D47">
-        <v>2481186</v>
+        <v>2539697</v>
       </c>
       <c r="E47">
-        <v>9131</v>
+        <v>9324</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G47">
-        <v>235</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="J47">
         <v>230</v>
       </c>
       <c r="K47">
-        <f>D46/$P$7</f>
-        <v>210.54020784933627</v>
+        <f t="shared" si="1"/>
+        <v>215.51767625357309</v>
       </c>
       <c r="L47">
-        <f>D110/$P$7</f>
-        <v>194.31331688295518</v>
+        <f t="shared" si="2"/>
+        <v>206.54304986688879</v>
       </c>
       <c r="M47">
-        <f>D193/$P$7</f>
-        <v>186.38353845513177</v>
+        <f t="shared" si="3"/>
+        <v>199.41117428635911</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -6806,41 +6606,37 @@
         <v>6</v>
       </c>
       <c r="B48">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D48">
-        <v>2539697</v>
+        <v>2569256</v>
       </c>
       <c r="E48">
-        <v>9324</v>
+        <v>9421</v>
       </c>
       <c r="F48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G48">
-        <v>240</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="0"/>
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="J48">
         <v>235</v>
       </c>
       <c r="K48">
-        <f>D47/$P$7</f>
-        <v>215.51767625357309</v>
+        <f t="shared" si="1"/>
+        <v>220.59998558277002</v>
       </c>
       <c r="L48">
-        <f>D111/$P$7</f>
-        <v>197.76377330641432</v>
+        <f t="shared" si="2"/>
+        <v>212.04758930066822</v>
       </c>
       <c r="M48">
-        <f>D194/$P$7</f>
-        <v>191.7373744880779</v>
+        <f t="shared" si="3"/>
+        <v>204.38864269059593</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -6848,41 +6644,37 @@
         <v>6</v>
       </c>
       <c r="B49">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D49">
-        <v>2569256</v>
+        <v>2623054</v>
       </c>
       <c r="E49">
-        <v>9421</v>
+        <v>9606</v>
       </c>
       <c r="F49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G49">
-        <v>245</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="J49">
         <v>240</v>
       </c>
       <c r="K49">
-        <f>D48/$P$7</f>
-        <v>220.59998558277002</v>
+        <f t="shared" si="1"/>
+        <v>223.16750248492059</v>
       </c>
       <c r="L49">
-        <f>D112/$P$7</f>
-        <v>202.87335691103584</v>
+        <f t="shared" si="2"/>
+        <v>215.67272269189436</v>
       </c>
       <c r="M49">
-        <f>D195/$P$7</f>
-        <v>197.24973138933569</v>
+        <f t="shared" si="3"/>
+        <v>208.96125314020222</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -6890,41 +6682,37 @@
         <v>6</v>
       </c>
       <c r="B50">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D50">
-        <v>2623054</v>
+        <v>2680434</v>
       </c>
       <c r="E50">
-        <v>9606</v>
+        <v>9797</v>
       </c>
       <c r="F50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G50">
-        <v>250</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <v>240</v>
       </c>
       <c r="J50">
         <v>245</v>
       </c>
       <c r="K50">
-        <f>D49/$P$7</f>
-        <v>223.16750248492059</v>
+        <f t="shared" si="1"/>
+        <v>227.84043710049949</v>
       </c>
       <c r="L50">
-        <f>D113/$P$7</f>
-        <v>206.54304986688879</v>
+        <f t="shared" si="2"/>
+        <v>221.26724986242496</v>
       </c>
       <c r="M50">
-        <f>D196/$P$7</f>
-        <v>199.41117428635911</v>
+        <f t="shared" si="3"/>
+        <v>211.22093554520399</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -6932,41 +6720,37 @@
         <v>6</v>
       </c>
       <c r="B51">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D51">
-        <v>2680434</v>
+        <v>2710605</v>
       </c>
       <c r="E51">
-        <v>9797</v>
+        <v>9895</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G51">
-        <v>255</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <v>245</v>
       </c>
       <c r="J51">
         <v>250</v>
       </c>
       <c r="K51">
-        <f>D50/$P$7</f>
-        <v>227.84043710049949</v>
+        <f t="shared" si="1"/>
+        <v>232.82450692171804</v>
       </c>
       <c r="L51">
-        <f>D114/$P$7</f>
-        <v>212.04758930066822</v>
+        <f t="shared" si="2"/>
+        <v>226.55585347230146</v>
       </c>
       <c r="M51">
-        <f>D197/$P$7</f>
-        <v>204.38864269059593</v>
+        <f t="shared" si="3"/>
+        <v>215.5438213392508</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -6974,41 +6758,37 @@
         <v>6</v>
       </c>
       <c r="B52">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D52">
-        <v>2740776</v>
+        <v>2770335</v>
       </c>
       <c r="E52">
-        <v>9993</v>
+        <v>10090</v>
       </c>
       <c r="F52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G52">
-        <v>260</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="J52">
         <v>255</v>
       </c>
       <c r="K52">
-        <f>D51/$P$7</f>
-        <v>232.82450692171804</v>
+        <f t="shared" si="1"/>
+        <v>235.44518260272164</v>
       </c>
       <c r="L52">
-        <f>D115/$P$7</f>
-        <v>217.50756916982084</v>
+        <f t="shared" si="2"/>
+        <v>230.04913224539223</v>
       </c>
       <c r="M52">
-        <f>D198/$P$7</f>
-        <v>211.22093554520399</v>
+        <f t="shared" si="3"/>
+        <v>222.83213313009793</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -7016,41 +6796,37 @@
         <v>6</v>
       </c>
       <c r="B53">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D53">
-        <v>2770335</v>
+        <v>2829458</v>
       </c>
       <c r="E53">
-        <v>10090</v>
+        <v>10284</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G53">
-        <v>265</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <v>255</v>
       </c>
       <c r="J53">
         <v>260</v>
       </c>
       <c r="K53">
-        <f>D52/$P$7</f>
-        <v>238.06585828372522</v>
+        <f t="shared" si="1"/>
+        <v>240.63337518587579</v>
       </c>
       <c r="L53">
-        <f>D116/$P$7</f>
-        <v>221.26724986242496</v>
+        <f t="shared" si="2"/>
+        <v>233.6742656366184</v>
       </c>
       <c r="M53">
-        <f>D199/$P$7</f>
-        <v>213.38237844222741</v>
+        <f t="shared" si="3"/>
+        <v>225.56086358380273</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -7058,41 +6834,37 @@
         <v>6</v>
       </c>
       <c r="B54">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D54">
-        <v>2829458</v>
+        <v>2889800</v>
       </c>
       <c r="E54">
-        <v>10284</v>
+        <v>10480</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G54">
-        <v>270</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <v>260</v>
       </c>
       <c r="J54">
         <v>265</v>
       </c>
       <c r="K54">
-        <f>D53/$P$7</f>
-        <v>240.63337518587579</v>
+        <f t="shared" si="1"/>
+        <v>245.76884329392573</v>
       </c>
       <c r="L54">
-        <f>D117/$P$7</f>
-        <v>224.85286161251042</v>
+        <f t="shared" si="2"/>
+        <v>239.04512637651746</v>
       </c>
       <c r="M54">
-        <f>D200/$P$7</f>
-        <v>215.5438213392508</v>
+        <f t="shared" si="3"/>
+        <v>228.07565601084909</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -7100,41 +6872,37 @@
         <v>6</v>
       </c>
       <c r="B55">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C55">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D55">
-        <v>2889800</v>
+        <v>2920590</v>
       </c>
       <c r="E55">
-        <v>10480</v>
+        <v>10579</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G55">
-        <v>275</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <v>265</v>
       </c>
       <c r="J55">
         <v>270</v>
       </c>
       <c r="K55">
-        <f>D54/$P$7</f>
-        <v>245.76884329392573</v>
+        <f t="shared" si="1"/>
+        <v>251.01019465593291</v>
       </c>
       <c r="L55">
-        <f>D118/$P$7</f>
-        <v>230.04913224539223</v>
+        <f t="shared" si="2"/>
+        <v>242.62570020311682</v>
       </c>
       <c r="M55">
-        <f>D201/$P$7</f>
-        <v>220.26461622794736</v>
+        <f t="shared" si="3"/>
+        <v>233.21112411889902</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -7142,41 +6910,37 @@
         <v>6</v>
       </c>
       <c r="B56">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C56">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D56">
-        <v>2920590</v>
+        <v>2980320</v>
       </c>
       <c r="E56">
-        <v>10579</v>
+        <v>10774</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G56">
-        <v>280</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="J56">
         <v>275</v>
       </c>
       <c r="K56">
-        <f>D55/$P$7</f>
-        <v>251.01019465593291</v>
+        <f t="shared" si="1"/>
+        <v>253.6846371410378</v>
       </c>
       <c r="L56">
-        <f>D119/$P$7</f>
-        <v>233.6742656366184</v>
+        <f t="shared" si="2"/>
+        <v>246.20627402971618</v>
       </c>
       <c r="M56">
-        <f>D202/$P$7</f>
-        <v>225.56086358380273</v>
+        <f t="shared" si="3"/>
+        <v>238.24131699824005</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -7184,41 +6948,37 @@
         <v>6</v>
       </c>
       <c r="B57">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C57">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D57">
-        <v>2980320</v>
+        <v>3031857</v>
       </c>
       <c r="E57">
-        <v>10774</v>
+        <v>10955</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G57">
-        <v>285</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <v>275</v>
       </c>
       <c r="J57">
         <v>280</v>
       </c>
       <c r="K57">
-        <f>D56/$P$7</f>
-        <v>253.6846371410378</v>
+        <f t="shared" si="1"/>
+        <v>258.87282972419194</v>
       </c>
       <c r="L57">
-        <f>D120/$P$7</f>
-        <v>237.25483946321776</v>
+        <f t="shared" si="2"/>
+        <v>251.98260074949411</v>
       </c>
       <c r="M57">
-        <f>D203/$P$7</f>
-        <v>228.07565601084909</v>
+        <f t="shared" si="3"/>
+        <v>240.75610942528641</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -7226,41 +6986,37 @@
         <v>6</v>
       </c>
       <c r="B58">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C58">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D58">
-        <v>3031857</v>
+        <v>3059616</v>
       </c>
       <c r="E58">
-        <v>10955</v>
+        <v>11049</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G58">
-        <v>290</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <v>280</v>
       </c>
       <c r="J58">
         <v>285</v>
       </c>
       <c r="K58">
-        <f>D57/$P$7</f>
-        <v>258.87282972419194</v>
+        <f t="shared" si="1"/>
+        <v>263.34937218456389</v>
       </c>
       <c r="L58">
-        <f>D121/$P$7</f>
-        <v>242.62570020311682</v>
+        <f t="shared" si="2"/>
+        <v>257.85117358551696</v>
       </c>
       <c r="M58">
-        <f>D204/$P$7</f>
-        <v>233.21112411889902</v>
+        <f t="shared" si="3"/>
+        <v>245.99746078729359</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -7268,41 +7024,37 @@
         <v>6</v>
       </c>
       <c r="B59">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C59">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D59">
-        <v>3089175</v>
+        <v>3119346</v>
       </c>
       <c r="E59">
-        <v>11146</v>
+        <v>11244</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G59">
-        <v>295</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="0"/>
-        <v>58</v>
+        <v>285</v>
       </c>
       <c r="J59">
         <v>290</v>
       </c>
       <c r="K59">
-        <f>D58/$P$7</f>
-        <v>263.34937218456389</v>
+        <f t="shared" si="1"/>
+        <v>265.76053973714676</v>
       </c>
       <c r="L59">
-        <f>D122/$P$7</f>
-        <v>248.13171626964217</v>
+        <f t="shared" si="2"/>
+        <v>261.79430418161382</v>
       </c>
       <c r="M59">
-        <f>D205/$P$7</f>
-        <v>238.24131699824005</v>
+        <f t="shared" si="3"/>
+        <v>251.34686692200196</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -7310,41 +7062,37 @@
         <v>6</v>
       </c>
       <c r="B60">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C60">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D60">
-        <v>3150761</v>
+        <v>3181551</v>
       </c>
       <c r="E60">
-        <v>11344</v>
+        <v>11443</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G60">
-        <v>300</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <v>290</v>
       </c>
       <c r="J60">
         <v>295</v>
       </c>
       <c r="K60">
-        <f>D59/$P$7</f>
-        <v>268.32805663929736</v>
+        <f t="shared" si="1"/>
+        <v>270.94873232030096</v>
       </c>
       <c r="L60">
-        <f>D123/$P$7</f>
-        <v>251.98260074949411</v>
+        <f t="shared" si="2"/>
+        <v>265.33101332958449</v>
       </c>
       <c r="M60">
-        <f>D206/$P$7</f>
-        <v>243.37678510628999</v>
+        <f t="shared" si="3"/>
+        <v>256.58882630925746</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -7352,41 +7100,37 @@
         <v>6</v>
       </c>
       <c r="B61">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C61">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D61">
-        <v>3181551</v>
+        <v>3242512</v>
       </c>
       <c r="E61">
-        <v>11443</v>
+        <v>11640</v>
       </c>
       <c r="F61" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G61">
-        <v>305</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>295</v>
       </c>
       <c r="J61">
         <v>300</v>
       </c>
       <c r="K61">
-        <f>D60/$P$7</f>
-        <v>273.67746277400573</v>
+        <f t="shared" si="1"/>
+        <v>276.35190525911065</v>
       </c>
       <c r="L61">
-        <f>D124/$P$7</f>
-        <v>255.8796082874685</v>
+        <f t="shared" si="2"/>
+        <v>270.48341928383758</v>
       </c>
       <c r="M61">
-        <f>D207/$P$7</f>
-        <v>245.99746078729359</v>
+        <f t="shared" si="3"/>
+        <v>259.26326879436238</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -7394,41 +7138,37 @@
         <v>6</v>
       </c>
       <c r="B62">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C62">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D62">
-        <v>3242512</v>
+        <v>3304092</v>
       </c>
       <c r="E62">
-        <v>11640</v>
+        <v>11838</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G62">
-        <v>310</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="0"/>
-        <v>61</v>
+        <v>300</v>
       </c>
       <c r="J62">
         <v>305</v>
       </c>
       <c r="K62">
-        <f>D61/$P$7</f>
-        <v>276.35190525911065</v>
+        <f t="shared" si="1"/>
+        <v>281.64702342521912</v>
       </c>
       <c r="L62">
-        <f>D125/$P$7</f>
-        <v>261.79430418161382</v>
+        <f t="shared" si="2"/>
+        <v>273.84770984353497</v>
       </c>
       <c r="M62">
-        <f>D208/$P$7</f>
-        <v>251.34686692200196</v>
+        <f t="shared" si="3"/>
+        <v>264.18862074874329</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -7436,41 +7176,37 @@
         <v>6</v>
       </c>
       <c r="B63">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C63">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D63">
-        <v>3304092</v>
+        <v>3334882</v>
       </c>
       <c r="E63">
-        <v>11838</v>
+        <v>11937</v>
       </c>
       <c r="F63" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G63">
-        <v>315</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <v>305</v>
       </c>
       <c r="J63">
         <v>310</v>
       </c>
       <c r="K63">
-        <f>D62/$P$7</f>
-        <v>281.64702342521912</v>
+        <f t="shared" si="1"/>
+        <v>286.99590839542896</v>
       </c>
       <c r="L63">
-        <f>D126/$P$7</f>
-        <v>265.33101332958449</v>
+        <f t="shared" si="2"/>
+        <v>278.873212242389</v>
       </c>
       <c r="M63">
-        <f>D209/$P$7</f>
-        <v>256.58882630925746</v>
+        <f t="shared" si="3"/>
+        <v>269.16608915298013</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -7478,41 +7214,37 @@
         <v>6</v>
       </c>
       <c r="B64">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C64">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64">
-        <v>3363834</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>12033</v>
+        <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G64">
-        <v>320</v>
-      </c>
-      <c r="I64">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <v>310</v>
       </c>
       <c r="J64">
         <v>315</v>
       </c>
       <c r="K64">
-        <f>D63/$P$7</f>
-        <v>286.99590839542896</v>
+        <f t="shared" si="1"/>
+        <v>289.67035088053387</v>
       </c>
       <c r="L64">
-        <f>D127/$P$7</f>
-        <v>270.48341928383758</v>
+        <f t="shared" si="2"/>
+        <v>282.32262633685104</v>
       </c>
       <c r="M64">
-        <f>D210/$P$7</f>
-        <v>259.26326879436238</v>
+        <f t="shared" si="3"/>
+        <v>271.62876513017056</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -7520,10 +7252,10 @@
         <v>6</v>
       </c>
       <c r="B65">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C65">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -7532,29 +7264,21 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G65">
-        <v>325</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <v>315</v>
       </c>
       <c r="J65">
         <v>320</v>
       </c>
-      <c r="K65">
-        <f>D64/$P$7</f>
-        <v>292.18514330758023</v>
-      </c>
       <c r="L65">
-        <f>D128/$P$7</f>
-        <v>273.84770984353497</v>
+        <f t="shared" si="2"/>
+        <v>285.64296535717</v>
       </c>
       <c r="M65">
-        <f>D211/$P$7</f>
-        <v>264.18862074874329</v>
+        <f t="shared" si="3"/>
+        <v>276.29848589800838</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -7562,10 +7286,10 @@
         <v>6</v>
       </c>
       <c r="B66">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C66">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -7574,101 +7298,89 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G66">
-        <v>330</v>
-      </c>
-      <c r="I66">
-        <f t="shared" si="0"/>
-        <v>65</v>
+        <v>320</v>
       </c>
       <c r="J66">
         <v>325</v>
       </c>
       <c r="L66">
-        <f>D129/$P$7</f>
-        <v>277.126790007718</v>
+        <f t="shared" si="2"/>
+        <v>290.54651526336119</v>
       </c>
       <c r="M66">
-        <f>D212/$P$7</f>
-        <v>269.16608915298013</v>
+        <f t="shared" si="3"/>
+        <v>280.96820666584614</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="C67">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="D67">
-        <v>53629</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>523</v>
+        <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G67">
-        <v>5</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="0"/>
-        <v>66</v>
+        <v>325</v>
       </c>
       <c r="J67">
         <v>330</v>
       </c>
       <c r="L67">
-        <f>D130/$P$7</f>
-        <v>282.32262633685104</v>
+        <f t="shared" si="2"/>
+        <v>294.8704433864051</v>
       </c>
       <c r="M67">
-        <f>D213/$P$7</f>
-        <v>271.62876513017056</v>
+        <f t="shared" si="3"/>
+        <v>283.37937421842901</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="C68">
-        <v>298</v>
+        <v>183</v>
       </c>
       <c r="D68">
-        <v>119976</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>982</v>
+        <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G68">
-        <v>10</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="0"/>
-        <v>67</v>
+        <v>330</v>
       </c>
       <c r="J68">
         <v>335</v>
       </c>
       <c r="L68">
-        <f>D131/$P$7</f>
-        <v>287.34595721696104</v>
+        <f t="shared" ref="L68:L85" si="4">D134/$P$7</f>
+        <v>297.47088051271464</v>
       </c>
       <c r="M68">
-        <f>D214/$P$7</f>
-        <v>276.29848589800838</v>
+        <f t="shared" ref="M68:M85" si="5">D216/$P$7</f>
+        <v>288.25321774820236</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -7676,33 +7388,33 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="D69">
-        <v>188976</v>
+        <v>84068</v>
       </c>
       <c r="E69">
-        <v>1401</v>
+        <v>743</v>
       </c>
       <c r="F69" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G69">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J69">
         <v>340</v>
       </c>
       <c r="L69">
-        <f>D132/$P$7</f>
-        <v>290.54651526336119</v>
+        <f t="shared" si="4"/>
+        <v>299.8843933055411</v>
       </c>
       <c r="M69">
-        <f>D215/$P$7</f>
-        <v>280.96820666584614</v>
+        <f t="shared" si="5"/>
+        <v>293.2306861524392</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -7710,33 +7422,33 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="D70">
-        <v>248455</v>
+        <v>161489</v>
       </c>
       <c r="E70">
-        <v>1738</v>
+        <v>1239</v>
       </c>
       <c r="F70" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G70">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J70">
         <v>345</v>
       </c>
       <c r="L70">
-        <f>D133/$P$7</f>
-        <v>293.49491655320861</v>
+        <f t="shared" si="4"/>
+        <v>304.28693040711767</v>
       </c>
       <c r="M70">
-        <f>D216/$P$7</f>
-        <v>285.84205019561949</v>
+        <f t="shared" si="5"/>
+        <v>298.15664613206849</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -7744,33 +7456,33 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D71">
-        <v>314453</v>
+        <v>238248</v>
       </c>
       <c r="E71">
-        <v>2093</v>
+        <v>1681</v>
       </c>
       <c r="F71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G71">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J71">
         <v>350</v>
       </c>
       <c r="L71">
-        <f>D134/$P$7</f>
-        <v>297.47088051271464</v>
+        <f t="shared" si="4"/>
+        <v>307.27546136335405</v>
       </c>
       <c r="M71">
-        <f>D217/$P$7</f>
-        <v>288.25321774820236</v>
+        <f t="shared" si="5"/>
+        <v>300.51673956379256</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -7778,33 +7490,33 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D72">
-        <v>374451</v>
+        <v>303144</v>
       </c>
       <c r="E72">
-        <v>2402</v>
+        <v>2033</v>
       </c>
       <c r="F72" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G72">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J72">
         <v>355</v>
       </c>
       <c r="L72">
-        <f>D135/$P$7</f>
-        <v>299.8843933055411</v>
+        <f t="shared" si="4"/>
+        <v>311.75825779770872</v>
       </c>
       <c r="M72">
-        <f>D218/$P$7</f>
-        <v>293.2306861524392</v>
+        <f t="shared" si="5"/>
+        <v>305.08604930490799</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -7812,33 +7524,33 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C73">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D73">
-        <v>438394</v>
+        <v>374451</v>
       </c>
       <c r="E73">
-        <v>2721</v>
+        <v>2402</v>
       </c>
       <c r="F73" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G73">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J73">
         <v>360</v>
       </c>
       <c r="L73">
-        <f>D136/$P$7</f>
-        <v>304.28693040711767</v>
+        <f t="shared" si="4"/>
+        <v>316.57060391665209</v>
       </c>
       <c r="M73">
-        <f>D219/$P$7</f>
-        <v>298.15664613206849</v>
+        <f t="shared" si="5"/>
+        <v>309.55599034829817</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -7846,33 +7558,33 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C74">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D74">
-        <v>478624</v>
+        <v>438394</v>
       </c>
       <c r="E74">
-        <v>2917</v>
+        <v>2721</v>
       </c>
       <c r="F74" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G74">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J74">
         <v>365</v>
       </c>
       <c r="L74">
-        <f>D137/$P$7</f>
-        <v>308.76972684147228</v>
+        <f t="shared" si="4"/>
+        <v>319.72338855068438</v>
       </c>
       <c r="M74">
-        <f>D220/$P$7</f>
-        <v>302.82636689990625</v>
+        <f t="shared" si="5"/>
+        <v>314.53345875253501</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -7880,33 +7592,33 @@
         <v>72</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C75">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D75">
-        <v>549564</v>
+        <v>506410</v>
       </c>
       <c r="E75">
-        <v>3253</v>
+        <v>3050</v>
       </c>
       <c r="F75" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G75">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J75">
         <v>370</v>
       </c>
       <c r="L75">
-        <f>D138/$P$7</f>
-        <v>311.75825779770872</v>
+        <f t="shared" si="4"/>
+        <v>324.20670614953758</v>
       </c>
       <c r="M75">
-        <f>D221/$P$7</f>
-        <v>307.29630794329643</v>
+        <f t="shared" si="5"/>
+        <v>319.61681041072904</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -7914,33 +7626,33 @@
         <v>72</v>
       </c>
       <c r="B76">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C76">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D76">
-        <v>608961</v>
+        <v>549564</v>
       </c>
       <c r="E76">
-        <v>3528</v>
+        <v>3253</v>
       </c>
       <c r="F76" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G76">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J76">
         <v>375</v>
       </c>
       <c r="L76">
-        <f>D139/$P$7</f>
-        <v>316.57060391665209</v>
+        <f t="shared" si="4"/>
+        <v>327.52704516985654</v>
       </c>
       <c r="M76">
-        <f>D222/$P$7</f>
-        <v>312.01866632548865</v>
+        <f t="shared" si="5"/>
+        <v>324.38911372403317</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -7948,33 +7660,33 @@
         <v>72</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C77">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D77">
-        <v>670097</v>
+        <v>623918</v>
       </c>
       <c r="E77">
-        <v>3807</v>
+        <v>3597</v>
       </c>
       <c r="F77" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G77">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J77">
         <v>380</v>
       </c>
       <c r="L77">
-        <f>D140/$P$7</f>
-        <v>319.72338855068438</v>
+        <f t="shared" si="4"/>
+        <v>332.76778850661537</v>
       </c>
       <c r="M77">
-        <f>D223/$P$7</f>
-        <v>314.53345875253501</v>
+        <f t="shared" si="5"/>
+        <v>326.74920715575729</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -7982,33 +7694,33 @@
         <v>72</v>
       </c>
       <c r="B78">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C78">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D78">
-        <v>734341</v>
+        <v>685933</v>
       </c>
       <c r="E78">
-        <v>4093</v>
+        <v>3878</v>
       </c>
       <c r="F78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G78">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J78">
         <v>385</v>
       </c>
       <c r="L78">
-        <f>D141/$P$7</f>
-        <v>324.20670614953758</v>
+        <f t="shared" si="4"/>
+        <v>337.80249814494391</v>
       </c>
       <c r="M78">
-        <f>D224/$P$7</f>
-        <v>319.61681041072904</v>
+        <f t="shared" si="5"/>
+        <v>331.72667555999413</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -8016,33 +7728,33 @@
         <v>72</v>
       </c>
       <c r="B79">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C79">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D79">
-        <v>784109</v>
+        <v>750627</v>
       </c>
       <c r="E79">
-        <v>4311</v>
+        <v>4165</v>
       </c>
       <c r="F79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G79">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="J79">
         <v>390</v>
       </c>
       <c r="L79">
-        <f>D142/$P$7</f>
-        <v>329.3173320831562</v>
+        <f t="shared" si="4"/>
+        <v>341.08383668862069</v>
       </c>
       <c r="M79">
-        <f>D225/$P$7</f>
-        <v>324.38911372403317</v>
+        <f t="shared" si="5"/>
+        <v>336.60051908976749</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -8050,33 +7762,33 @@
         <v>72</v>
       </c>
       <c r="B80">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C80">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D80">
-        <v>869200</v>
+        <v>817591</v>
       </c>
       <c r="E80">
-        <v>4679</v>
+        <v>4457</v>
       </c>
       <c r="F80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G80">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J80">
         <v>395</v>
       </c>
       <c r="L80">
-        <f>D143/$P$7</f>
-        <v>332.76778850661537</v>
+        <f t="shared" si="4"/>
+        <v>346.27967301775374</v>
       </c>
       <c r="M80">
-        <f>D226/$P$7</f>
-        <v>329.21188313294778</v>
+        <f t="shared" si="5"/>
+        <v>341.78871167292164</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -8084,33 +7796,33 @@
         <v>72</v>
       </c>
       <c r="B81">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C81">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D81">
-        <v>939416</v>
+        <v>869200</v>
       </c>
       <c r="E81">
-        <v>4978</v>
+        <v>4679</v>
       </c>
       <c r="F81" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G81">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J81">
         <v>400</v>
       </c>
       <c r="L81">
-        <f>D144/$P$7</f>
-        <v>337.80249814494391</v>
+        <f t="shared" si="4"/>
+        <v>351.43207897200682</v>
       </c>
       <c r="M81">
-        <f>D227/$P$7</f>
-        <v>334.137843112577</v>
+        <f t="shared" si="5"/>
+        <v>346.71901469003888</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -8118,33 +7830,25 @@
         <v>72</v>
       </c>
       <c r="B82">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C82">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D82">
-        <v>992909</v>
+        <v>957561</v>
       </c>
       <c r="E82">
-        <v>5204</v>
+        <v>5054</v>
       </c>
       <c r="F82" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G82">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J82">
         <v>405</v>
-      </c>
-      <c r="L82">
-        <f>D145/$P$7</f>
-        <v>342.78682854841173</v>
-      </c>
-      <c r="M82">
-        <f>D228/$P$7</f>
-        <v>336.60051908976749</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -8152,33 +7856,25 @@
         <v>72</v>
       </c>
       <c r="B83">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C83">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D83">
-        <v>1046421</v>
+        <v>1027795</v>
       </c>
       <c r="E83">
-        <v>5430</v>
+        <v>5353</v>
       </c>
       <c r="F83" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G83">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J83">
         <v>410</v>
-      </c>
-      <c r="L83">
-        <f>D146/$P$7</f>
-        <v>348.02609525242468</v>
-      </c>
-      <c r="M83">
-        <f>D229/$P$7</f>
-        <v>341.78871167292164</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -8186,33 +7882,25 @@
         <v>72</v>
       </c>
       <c r="B84">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C84">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D84">
-        <v>1102299</v>
+        <v>1083673</v>
       </c>
       <c r="E84">
-        <v>5661</v>
+        <v>5584</v>
       </c>
       <c r="F84" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G84">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J84">
         <v>415</v>
-      </c>
-      <c r="L84">
-        <f>D147/$P$7</f>
-        <v>351.43207897200682</v>
-      </c>
-      <c r="M84">
-        <f>D230/$P$7</f>
-        <v>346.71901469003888</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -8220,33 +7908,25 @@
         <v>72</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C85">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D85">
-        <v>1176803</v>
+        <v>1139551</v>
       </c>
       <c r="E85">
-        <v>5969</v>
+        <v>5815</v>
       </c>
       <c r="F85" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G85">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="J85">
         <v>420</v>
-      </c>
-      <c r="L85">
-        <f>D148/$P$7</f>
-        <v>354.79845418969848</v>
-      </c>
-      <c r="M85">
-        <f>D231/$P$7</f>
-        <v>351.6466250239136</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -8254,22 +7934,22 @@
         <v>72</v>
       </c>
       <c r="B86">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C86">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D86">
-        <v>1232681</v>
+        <v>1195429</v>
       </c>
       <c r="E86">
-        <v>6200</v>
+        <v>6046</v>
       </c>
       <c r="F86" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G86">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -8277,22 +7957,22 @@
         <v>72</v>
       </c>
       <c r="B87">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C87">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D87">
-        <v>1290020</v>
+        <v>1270907</v>
       </c>
       <c r="E87">
-        <v>6434</v>
+        <v>6356</v>
       </c>
       <c r="F87" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G87">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -8300,7 +7980,7 @@
         <v>72</v>
       </c>
       <c r="B88">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C88">
         <v>215</v>
@@ -8312,10 +7992,10 @@
         <v>6588</v>
       </c>
       <c r="F88" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G88">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -8323,7 +8003,7 @@
         <v>72</v>
       </c>
       <c r="B89">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C89">
         <v>212</v>
@@ -8335,10 +8015,10 @@
         <v>6823</v>
       </c>
       <c r="F89" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G89">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -8346,22 +8026,22 @@
         <v>72</v>
       </c>
       <c r="B90">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C90">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D90">
-        <v>1440032</v>
+        <v>1421887</v>
       </c>
       <c r="E90">
-        <v>7052</v>
+        <v>6976</v>
       </c>
       <c r="F90" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G90">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -8369,22 +8049,22 @@
         <v>72</v>
       </c>
       <c r="B91">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C91">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D91">
-        <v>1497389</v>
+        <v>1477783</v>
       </c>
       <c r="E91">
-        <v>7286</v>
+        <v>7207</v>
       </c>
       <c r="F91" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G91">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -8392,22 +8072,22 @@
         <v>72</v>
       </c>
       <c r="B92">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C92">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D92">
-        <v>1556707</v>
+        <v>1536601</v>
       </c>
       <c r="E92">
-        <v>7524</v>
+        <v>7444</v>
       </c>
       <c r="F92" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G92">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -8415,7 +8095,7 @@
         <v>72</v>
       </c>
       <c r="B93">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C93">
         <v>201</v>
@@ -8427,10 +8107,10 @@
         <v>7684</v>
       </c>
       <c r="F93" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G93">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -8438,7 +8118,7 @@
         <v>72</v>
       </c>
       <c r="B94">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C94">
         <v>198</v>
@@ -8450,10 +8130,10 @@
         <v>7903</v>
       </c>
       <c r="F94" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G94">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -8461,22 +8141,22 @@
         <v>72</v>
       </c>
       <c r="B95">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C95">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D95">
-        <v>1691451</v>
+        <v>1678983</v>
       </c>
       <c r="E95">
-        <v>8108</v>
+        <v>8045</v>
       </c>
       <c r="F95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G95">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -8484,22 +8164,22 @@
         <v>72</v>
       </c>
       <c r="B96">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C96">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D96">
-        <v>1728855</v>
+        <v>1716387</v>
       </c>
       <c r="E96">
-        <v>8297</v>
+        <v>8234</v>
       </c>
       <c r="F96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G96">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -8507,7 +8187,7 @@
         <v>72</v>
       </c>
       <c r="B97">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C97">
         <v>190</v>
@@ -8519,10 +8199,10 @@
         <v>8394</v>
       </c>
       <c r="F97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G97">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -8530,7 +8210,7 @@
         <v>72</v>
       </c>
       <c r="B98">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C98">
         <v>187</v>
@@ -8542,10 +8222,10 @@
         <v>8545</v>
       </c>
       <c r="F98" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G98">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -8553,22 +8233,22 @@
         <v>72</v>
       </c>
       <c r="B99">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C99">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D99">
-        <v>1796517</v>
+        <v>1784049</v>
       </c>
       <c r="E99">
-        <v>8710</v>
+        <v>8647</v>
       </c>
       <c r="F99" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G99">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -8576,7 +8256,7 @@
         <v>72</v>
       </c>
       <c r="B100">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C100">
         <v>182</v>
@@ -8588,10 +8268,10 @@
         <v>8839</v>
       </c>
       <c r="F100" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G100">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -8599,7 +8279,7 @@
         <v>72</v>
       </c>
       <c r="B101">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C101">
         <v>179</v>
@@ -8611,10 +8291,10 @@
         <v>9035</v>
       </c>
       <c r="F101" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G101">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -8622,7 +8302,7 @@
         <v>72</v>
       </c>
       <c r="B102">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C102">
         <v>177</v>
@@ -8634,10 +8314,10 @@
         <v>9155</v>
       </c>
       <c r="F102" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G102">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -8645,7 +8325,7 @@
         <v>72</v>
       </c>
       <c r="B103">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C103">
         <v>174</v>
@@ -8657,10 +8337,10 @@
         <v>9348</v>
       </c>
       <c r="F103" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G103">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -8668,7 +8348,7 @@
         <v>72</v>
       </c>
       <c r="B104">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C104">
         <v>172</v>
@@ -8680,10 +8360,10 @@
         <v>9484</v>
       </c>
       <c r="F104" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G104">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -8691,7 +8371,7 @@
         <v>72</v>
       </c>
       <c r="B105">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C105">
         <v>169</v>
@@ -8703,10 +8383,10 @@
         <v>9686</v>
       </c>
       <c r="F105" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G105">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -8714,7 +8394,7 @@
         <v>72</v>
       </c>
       <c r="B106">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C106">
         <v>167</v>
@@ -8726,10 +8406,10 @@
         <v>9833</v>
       </c>
       <c r="F106" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G106">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -8737,7 +8417,7 @@
         <v>72</v>
       </c>
       <c r="B107">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C107">
         <v>164</v>
@@ -8749,10 +8429,10 @@
         <v>10069</v>
       </c>
       <c r="F107" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G107">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -8760,7 +8440,7 @@
         <v>72</v>
       </c>
       <c r="B108">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C108">
         <v>162</v>
@@ -8772,10 +8452,10 @@
         <v>10228</v>
       </c>
       <c r="F108" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G108">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -8783,7 +8463,7 @@
         <v>72</v>
       </c>
       <c r="B109">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C109">
         <v>159</v>
@@ -8795,10 +8475,10 @@
         <v>10476</v>
       </c>
       <c r="F109" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G109">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -8806,7 +8486,7 @@
         <v>72</v>
       </c>
       <c r="B110">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C110">
         <v>157</v>
@@ -8818,10 +8498,10 @@
         <v>10642</v>
       </c>
       <c r="F110" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G110">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -8829,22 +8509,22 @@
         <v>72</v>
       </c>
       <c r="B111">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C111">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D111">
-        <v>2276791</v>
+        <v>2296397</v>
       </c>
       <c r="E111">
-        <v>10801</v>
+        <v>10880</v>
       </c>
       <c r="F111" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G111">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -8852,7 +8532,7 @@
         <v>72</v>
       </c>
       <c r="B112">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C112">
         <v>152</v>
@@ -8864,10 +8544,10 @@
         <v>11038</v>
       </c>
       <c r="F112" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G112">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -8875,7 +8555,7 @@
         <v>72</v>
       </c>
       <c r="B113">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C113">
         <v>150</v>
@@ -8887,10 +8567,10 @@
         <v>11202</v>
       </c>
       <c r="F113" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G113">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -8898,7 +8578,7 @@
         <v>72</v>
       </c>
       <c r="B114">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C114">
         <v>147</v>
@@ -8910,10 +8590,10 @@
         <v>11448</v>
       </c>
       <c r="F114" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G114">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -8921,22 +8601,22 @@
         <v>72</v>
       </c>
       <c r="B115">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C115">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D115">
-        <v>2504095</v>
+        <v>2482971</v>
       </c>
       <c r="E115">
-        <v>11693</v>
+        <v>11611</v>
       </c>
       <c r="F115" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G115">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -8944,7 +8624,7 @@
         <v>72</v>
       </c>
       <c r="B116">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C116">
         <v>142</v>
@@ -8956,10 +8636,10 @@
         <v>11859</v>
       </c>
       <c r="F116" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G116">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -8967,22 +8647,22 @@
         <v>72</v>
       </c>
       <c r="B117">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C117">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D117">
-        <v>2588659</v>
+        <v>2608265</v>
       </c>
       <c r="E117">
-        <v>12021</v>
+        <v>12100</v>
       </c>
       <c r="F117" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G117">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -8990,7 +8670,7 @@
         <v>72</v>
       </c>
       <c r="B118">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C118">
         <v>137</v>
@@ -9002,10 +8682,10 @@
         <v>12260</v>
       </c>
       <c r="F118" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G118">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -9013,7 +8693,7 @@
         <v>72</v>
       </c>
       <c r="B119">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C119">
         <v>135</v>
@@ -9025,10 +8705,10 @@
         <v>12423</v>
       </c>
       <c r="F119" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G119">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -9036,22 +8716,22 @@
         <v>72</v>
       </c>
       <c r="B120">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C120">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D120">
-        <v>2731439</v>
+        <v>2752050</v>
       </c>
       <c r="E120">
-        <v>12585</v>
+        <v>12666</v>
       </c>
       <c r="F120" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G120">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -9059,7 +8739,7 @@
         <v>72</v>
       </c>
       <c r="B121">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C121">
         <v>130</v>
@@ -9071,10 +8751,10 @@
         <v>12828</v>
       </c>
       <c r="F121" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G121">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -9082,22 +8762,22 @@
         <v>72</v>
       </c>
       <c r="B122">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C122">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D122">
-        <v>2856661</v>
+        <v>2834494</v>
       </c>
       <c r="E122">
-        <v>13074</v>
+        <v>12990</v>
       </c>
       <c r="F122" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G122">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -9105,7 +8785,7 @@
         <v>72</v>
       </c>
       <c r="B123">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C123">
         <v>125</v>
@@ -9117,10 +8797,10 @@
         <v>13242</v>
       </c>
       <c r="F123" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G123">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -9128,22 +8808,22 @@
         <v>72</v>
       </c>
       <c r="B124">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C124">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D124">
-        <v>2945860</v>
+        <v>2968558</v>
       </c>
       <c r="E124">
-        <v>13411</v>
+        <v>13496</v>
       </c>
       <c r="F124" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G124">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -9151,7 +8831,7 @@
         <v>72</v>
       </c>
       <c r="B125">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C125">
         <v>120</v>
@@ -9163,10 +8843,10 @@
         <v>13666</v>
       </c>
       <c r="F125" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G125">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -9174,7 +8854,7 @@
         <v>72</v>
       </c>
       <c r="B126">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C126">
         <v>118</v>
@@ -9186,10 +8866,10 @@
         <v>13827</v>
       </c>
       <c r="F126" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G126">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -9197,7 +8877,7 @@
         <v>72</v>
       </c>
       <c r="B127">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C127">
         <v>115</v>
@@ -9209,10 +8889,10 @@
         <v>14065</v>
       </c>
       <c r="F127" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G127">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -9220,7 +8900,7 @@
         <v>72</v>
       </c>
       <c r="B128">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C128">
         <v>113</v>
@@ -9232,10 +8912,10 @@
         <v>14222</v>
       </c>
       <c r="F128" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G128">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -9243,22 +8923,22 @@
         <v>72</v>
       </c>
       <c r="B129">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C129">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D129">
-        <v>3190472</v>
+        <v>3210578</v>
       </c>
       <c r="E129">
-        <v>14377</v>
+        <v>14457</v>
       </c>
       <c r="F129" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G129">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -9266,7 +8946,7 @@
         <v>72</v>
       </c>
       <c r="B130">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C130">
         <v>108</v>
@@ -9278,10 +8958,10 @@
         <v>14616</v>
       </c>
       <c r="F130" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G130">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -9289,22 +8969,22 @@
         <v>72</v>
       </c>
       <c r="B131">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C131">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D131">
-        <v>3308122</v>
+        <v>3288516</v>
       </c>
       <c r="E131">
-        <v>14851</v>
+        <v>14772</v>
       </c>
       <c r="F131" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G131">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -9312,7 +8992,7 @@
         <v>72</v>
       </c>
       <c r="B132">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C132">
         <v>103</v>
@@ -9324,10 +9004,10 @@
         <v>15004</v>
       </c>
       <c r="F132" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G132">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -9335,22 +9015,22 @@
         <v>72</v>
       </c>
       <c r="B133">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C133">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D133">
-        <v>3378913</v>
+        <v>3394749</v>
       </c>
       <c r="E133">
-        <v>15151</v>
+        <v>15222</v>
       </c>
       <c r="F133" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G133">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -9358,7 +9038,7 @@
         <v>72</v>
       </c>
       <c r="B134">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C134">
         <v>98</v>
@@ -9370,10 +9050,10 @@
         <v>15360</v>
       </c>
       <c r="F134" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G134">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -9381,7 +9061,7 @@
         <v>72</v>
       </c>
       <c r="B135">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C135">
         <v>96</v>
@@ -9393,10 +9073,10 @@
         <v>15493</v>
       </c>
       <c r="F135" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G135">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -9404,7 +9084,7 @@
         <v>72</v>
       </c>
       <c r="B136">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C136">
         <v>93</v>
@@ -9416,10 +9096,10 @@
         <v>15713</v>
       </c>
       <c r="F136" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G136">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -9427,22 +9107,22 @@
         <v>72</v>
       </c>
       <c r="B137">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C137">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D137">
-        <v>3554767</v>
+        <v>3537564</v>
       </c>
       <c r="E137">
-        <v>15935</v>
+        <v>15861</v>
       </c>
       <c r="F137" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G137">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -9450,7 +9130,7 @@
         <v>72</v>
       </c>
       <c r="B138">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C138">
         <v>88</v>
@@ -9462,10 +9142,10 @@
         <v>16083</v>
       </c>
       <c r="F138" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G138">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -9473,7 +9153,7 @@
         <v>72</v>
       </c>
       <c r="B139">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C139">
         <v>85</v>
@@ -9485,10 +9165,10 @@
         <v>16313</v>
       </c>
       <c r="F139" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G139">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -9496,7 +9176,7 @@
         <v>72</v>
       </c>
       <c r="B140">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C140">
         <v>83</v>
@@ -9508,10 +9188,10 @@
         <v>16465</v>
       </c>
       <c r="F140" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G140">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -9519,7 +9199,7 @@
         <v>72</v>
       </c>
       <c r="B141">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C141">
         <v>80</v>
@@ -9531,10 +9211,10 @@
         <v>16687</v>
       </c>
       <c r="F141" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G141">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -9542,22 +9222,22 @@
         <v>72</v>
       </c>
       <c r="B142">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C142">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D142">
-        <v>3791325</v>
+        <v>3770714</v>
       </c>
       <c r="E142">
-        <v>16924</v>
+        <v>16843</v>
       </c>
       <c r="F142" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G142">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -9565,7 +9245,7 @@
         <v>72</v>
       </c>
       <c r="B143">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C143">
         <v>75</v>
@@ -9577,10 +9257,10 @@
         <v>17083</v>
       </c>
       <c r="F143" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G143">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -9588,7 +9268,7 @@
         <v>72</v>
       </c>
       <c r="B144">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C144">
         <v>72</v>
@@ -9600,10 +9280,10 @@
         <v>17318</v>
       </c>
       <c r="F144" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G144">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -9611,22 +9291,22 @@
         <v>72</v>
       </c>
       <c r="B145">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C145">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D145">
-        <v>3946395</v>
+        <v>3926789</v>
       </c>
       <c r="E145">
-        <v>17552</v>
+        <v>17473</v>
       </c>
       <c r="F145" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G145">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -9634,22 +9314,22 @@
         <v>72</v>
       </c>
       <c r="B146">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C146">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D146">
-        <v>4006713</v>
+        <v>3986607</v>
       </c>
       <c r="E146">
-        <v>17792</v>
+        <v>17712</v>
       </c>
       <c r="F146" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G146">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -9657,7 +9337,7 @@
         <v>72</v>
       </c>
       <c r="B147">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C147">
         <v>64</v>
@@ -9669,10 +9349,10 @@
         <v>17950</v>
       </c>
       <c r="F147" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G147">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -9680,68 +9360,68 @@
         <v>72</v>
       </c>
       <c r="B148">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C148">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D148">
-        <v>4084681</v>
+        <v>0</v>
       </c>
       <c r="E148">
-        <v>18107</v>
+        <v>0</v>
       </c>
       <c r="F148" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G148">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C149">
-        <v>310</v>
+        <v>59</v>
       </c>
       <c r="D149">
-        <v>153591</v>
+        <v>0</v>
       </c>
       <c r="E149">
-        <v>981</v>
+        <v>0</v>
       </c>
       <c r="F149" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>405</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="B150">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="C150">
-        <v>320</v>
+        <v>57</v>
       </c>
       <c r="D150">
-        <v>53316</v>
+        <v>0</v>
       </c>
       <c r="E150">
-        <v>417</v>
+        <v>0</v>
       </c>
       <c r="F150" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G150">
-        <v>5</v>
+        <v>410</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -9749,7 +9429,7 @@
         <v>155</v>
       </c>
       <c r="B151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C151">
         <v>305</v>
@@ -9761,10 +9441,10 @@
         <v>1306</v>
       </c>
       <c r="F151" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G151">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -9772,22 +9452,22 @@
         <v>155</v>
       </c>
       <c r="B152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C152">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="D152">
-        <v>178926</v>
+        <v>98496</v>
       </c>
       <c r="E152">
-        <v>1108</v>
+        <v>685</v>
       </c>
       <c r="F152" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G152">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -9795,22 +9475,22 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C153">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D153">
-        <v>249037</v>
+        <v>295223</v>
       </c>
       <c r="E153">
-        <v>1442</v>
+        <v>1652</v>
       </c>
       <c r="F153" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G153">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -9818,22 +9498,22 @@
         <v>155</v>
       </c>
       <c r="B154">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C154">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D154">
-        <v>311509</v>
+        <v>249037</v>
       </c>
       <c r="E154">
-        <v>1724</v>
+        <v>1442</v>
       </c>
       <c r="F154" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G154">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -9841,22 +9521,22 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C155">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D155">
-        <v>363124</v>
+        <v>328250</v>
       </c>
       <c r="E155">
-        <v>1946</v>
+        <v>1797</v>
       </c>
       <c r="F155" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G155">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -9864,22 +9544,22 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C156">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D156">
-        <v>417085</v>
+        <v>398940</v>
       </c>
       <c r="E156">
-        <v>2173</v>
+        <v>2097</v>
       </c>
       <c r="F156" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G156">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -9887,22 +9567,22 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C157">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D157">
-        <v>473937</v>
+        <v>454824</v>
       </c>
       <c r="E157">
-        <v>2406</v>
+        <v>2328</v>
       </c>
       <c r="F157" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G157">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -9910,22 +9590,22 @@
         <v>155</v>
       </c>
       <c r="B158">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C158">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D158">
-        <v>534260</v>
+        <v>513649</v>
       </c>
       <c r="E158">
-        <v>2646</v>
+        <v>2565</v>
       </c>
       <c r="F158" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G158">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -9933,22 +9613,22 @@
         <v>155</v>
       </c>
       <c r="B159">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C159">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D159">
-        <v>597119</v>
+        <v>575995</v>
       </c>
       <c r="E159">
-        <v>2891</v>
+        <v>2809</v>
       </c>
       <c r="F159" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G159">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -9956,22 +9636,22 @@
         <v>155</v>
       </c>
       <c r="B160">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C160">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D160">
-        <v>662570</v>
+        <v>640403</v>
       </c>
       <c r="E160">
-        <v>3141</v>
+        <v>3057</v>
       </c>
       <c r="F160" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G160">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -9979,22 +9659,22 @@
         <v>155</v>
       </c>
       <c r="B161">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C161">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D161">
-        <v>731201</v>
+        <v>707966</v>
       </c>
       <c r="E161">
-        <v>3397</v>
+        <v>3311</v>
       </c>
       <c r="F161" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G161">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -10002,7 +9682,7 @@
         <v>155</v>
       </c>
       <c r="B162">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C162">
         <v>276</v>
@@ -10014,10 +9694,10 @@
         <v>3571</v>
       </c>
       <c r="F162" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G162">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -10025,7 +9705,7 @@
         <v>155</v>
       </c>
       <c r="B163">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C163">
         <v>273</v>
@@ -10037,10 +9717,10 @@
         <v>3834</v>
       </c>
       <c r="F163" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G163">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -10048,7 +9728,7 @@
         <v>155</v>
       </c>
       <c r="B164">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C164">
         <v>271</v>
@@ -10060,10 +9740,10 @@
         <v>4012</v>
       </c>
       <c r="F164" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G164">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -10071,7 +9751,7 @@
         <v>155</v>
       </c>
       <c r="B165">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C165">
         <v>268</v>
@@ -10083,10 +9763,10 @@
         <v>4283</v>
       </c>
       <c r="F165" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G165">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -10094,7 +9774,7 @@
         <v>155</v>
       </c>
       <c r="B166">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C166">
         <v>266</v>
@@ -10106,10 +9786,10 @@
         <v>4463</v>
       </c>
       <c r="F166" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G166">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -10117,22 +9797,22 @@
         <v>155</v>
       </c>
       <c r="B167">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C167">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D167">
-        <v>1081951</v>
+        <v>1108541</v>
       </c>
       <c r="E167">
-        <v>4647</v>
+        <v>4739</v>
       </c>
       <c r="F167" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G167">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -10140,22 +9820,22 @@
         <v>155</v>
       </c>
       <c r="B168">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C168">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D168">
-        <v>1135131</v>
+        <v>1162302</v>
       </c>
       <c r="E168">
-        <v>4831</v>
+        <v>4924</v>
       </c>
       <c r="F168" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G168">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -10163,7 +9843,7 @@
         <v>155</v>
       </c>
       <c r="B169">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C169">
         <v>259</v>
@@ -10175,10 +9855,10 @@
         <v>5110</v>
       </c>
       <c r="F169" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G169">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -10186,7 +9866,7 @@
         <v>155</v>
       </c>
       <c r="B170">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C170">
         <v>257</v>
@@ -10198,10 +9878,10 @@
         <v>5294</v>
       </c>
       <c r="F170" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G170">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -10209,22 +9889,22 @@
         <v>155</v>
       </c>
       <c r="B171">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C171">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D171">
-        <v>1295845</v>
+        <v>1348450</v>
       </c>
       <c r="E171">
-        <v>5385</v>
+        <v>5568</v>
       </c>
       <c r="F171" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G171">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -10232,22 +9912,22 @@
         <v>155</v>
       </c>
       <c r="B172">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C172">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D172">
-        <v>1376209</v>
+        <v>1403968</v>
       </c>
       <c r="E172">
-        <v>5662</v>
+        <v>5756</v>
       </c>
       <c r="F172" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G172">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -10255,22 +9935,22 @@
         <v>155</v>
       </c>
       <c r="B173">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C173">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D173">
-        <v>1403968</v>
+        <v>1429983</v>
       </c>
       <c r="E173">
-        <v>5756</v>
+        <v>5847</v>
       </c>
       <c r="F173" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G173">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -10278,22 +9958,22 @@
         <v>155</v>
       </c>
       <c r="B174">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C174">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D174">
-        <v>1455998</v>
+        <v>1508028</v>
       </c>
       <c r="E174">
-        <v>5938</v>
+        <v>6120</v>
       </c>
       <c r="F174" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G174">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -10301,22 +9981,22 @@
         <v>155</v>
       </c>
       <c r="B175">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C175">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D175">
-        <v>1508028</v>
+        <v>1531263</v>
       </c>
       <c r="E175">
-        <v>6120</v>
+        <v>6206</v>
       </c>
       <c r="F175" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G175">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -10324,22 +10004,22 @@
         <v>155</v>
       </c>
       <c r="B176">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C176">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D176">
-        <v>1554498</v>
+        <v>1577196</v>
       </c>
       <c r="E176">
-        <v>6292</v>
+        <v>6377</v>
       </c>
       <c r="F176" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G176">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -10347,22 +10027,22 @@
         <v>155</v>
       </c>
       <c r="B177">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C177">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D177">
-        <v>1599363</v>
+        <v>1621530</v>
       </c>
       <c r="E177">
-        <v>6461</v>
+        <v>6545</v>
       </c>
       <c r="F177" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G177">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -10370,22 +10050,22 @@
         <v>155</v>
       </c>
       <c r="B178">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C178">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D178">
-        <v>1644765</v>
+        <v>1666407</v>
       </c>
       <c r="E178">
-        <v>6631</v>
+        <v>6714</v>
       </c>
       <c r="F178" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G178">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -10393,22 +10073,22 @@
         <v>155</v>
       </c>
       <c r="B179">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C179">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D179">
-        <v>1687531</v>
+        <v>1699999</v>
       </c>
       <c r="E179">
-        <v>6796</v>
+        <v>6859</v>
       </c>
       <c r="F179" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G179">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -10416,22 +10096,22 @@
         <v>155</v>
       </c>
       <c r="B180">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C180">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D180">
-        <v>1714101</v>
+        <v>1728203</v>
       </c>
       <c r="E180">
-        <v>6926</v>
+        <v>6993</v>
       </c>
       <c r="F180" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G180">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -10439,22 +10119,22 @@
         <v>155</v>
       </c>
       <c r="B181">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C181">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D181">
-        <v>1728203</v>
+        <v>1753538</v>
       </c>
       <c r="E181">
-        <v>6993</v>
+        <v>7120</v>
       </c>
       <c r="F181" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G181">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -10462,22 +10142,22 @@
         <v>155</v>
       </c>
       <c r="B182">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C182">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D182">
-        <v>1753538</v>
+        <v>1781842</v>
       </c>
       <c r="E182">
-        <v>7120</v>
+        <v>7254</v>
       </c>
       <c r="F182" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G182">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -10485,22 +10165,22 @@
         <v>155</v>
       </c>
       <c r="B183">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C183">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D183">
-        <v>1781842</v>
+        <v>1799987</v>
       </c>
       <c r="E183">
-        <v>7254</v>
+        <v>7330</v>
       </c>
       <c r="F183" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G183">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -10508,22 +10188,22 @@
         <v>155</v>
       </c>
       <c r="B184">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C184">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D184">
-        <v>1819593</v>
+        <v>1839199</v>
       </c>
       <c r="E184">
-        <v>7409</v>
+        <v>7488</v>
       </c>
       <c r="F184" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G184">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -10531,22 +10211,22 @@
         <v>155</v>
       </c>
       <c r="B185">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C185">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D185">
-        <v>1858312</v>
+        <v>1877918</v>
       </c>
       <c r="E185">
-        <v>7566</v>
+        <v>7645</v>
       </c>
       <c r="F185" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G185">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -10554,22 +10234,22 @@
         <v>155</v>
       </c>
       <c r="B186">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C186">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D186">
-        <v>1877918</v>
+        <v>1917130</v>
       </c>
       <c r="E186">
-        <v>7645</v>
+        <v>7803</v>
       </c>
       <c r="F186" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G186">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -10577,22 +10257,22 @@
         <v>155</v>
       </c>
       <c r="B187">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C187">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D187">
-        <v>1917130</v>
+        <v>1953939</v>
       </c>
       <c r="E187">
-        <v>7803</v>
+        <v>7956</v>
       </c>
       <c r="F187" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G187">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -10600,22 +10280,22 @@
         <v>155</v>
       </c>
       <c r="B188">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C188">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D188">
-        <v>1953939</v>
+        <v>1976106</v>
       </c>
       <c r="E188">
-        <v>7956</v>
+        <v>8040</v>
       </c>
       <c r="F188" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G188">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -10623,22 +10303,22 @@
         <v>155</v>
       </c>
       <c r="B189">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C189">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D189">
-        <v>1998273</v>
+        <v>2018884</v>
       </c>
       <c r="E189">
-        <v>8124</v>
+        <v>8205</v>
       </c>
       <c r="F189" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G189">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -10646,22 +10326,22 @@
         <v>155</v>
       </c>
       <c r="B190">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C190">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D190">
-        <v>2041582</v>
+        <v>2064817</v>
       </c>
       <c r="E190">
-        <v>8290</v>
+        <v>8376</v>
       </c>
       <c r="F190" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G190">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -10669,22 +10349,22 @@
         <v>155</v>
       </c>
       <c r="B191">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C191">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D191">
-        <v>2064817</v>
+        <v>2119759</v>
       </c>
       <c r="E191">
-        <v>8376</v>
+        <v>8563</v>
       </c>
       <c r="F191" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G191">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -10692,22 +10372,22 @@
         <v>155</v>
       </c>
       <c r="B192">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C192">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D192">
-        <v>2119759</v>
+        <v>2174726</v>
       </c>
       <c r="E192">
-        <v>8563</v>
+        <v>8750</v>
       </c>
       <c r="F192" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G192">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -10715,22 +10395,22 @@
         <v>155</v>
       </c>
       <c r="B193">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C193">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D193">
-        <v>2145774</v>
+        <v>2207411</v>
       </c>
       <c r="E193">
-        <v>8654</v>
+        <v>8852</v>
       </c>
       <c r="F193" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G193">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -10738,22 +10418,22 @@
         <v>155</v>
       </c>
       <c r="B194">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C194">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D194">
-        <v>2207411</v>
+        <v>2270873</v>
       </c>
       <c r="E194">
-        <v>8852</v>
+        <v>9053</v>
       </c>
       <c r="F194" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G194">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -10761,22 +10441,22 @@
         <v>155</v>
       </c>
       <c r="B195">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C195">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D195">
-        <v>2270873</v>
+        <v>2295757</v>
       </c>
       <c r="E195">
-        <v>9053</v>
+        <v>9142</v>
       </c>
       <c r="F195" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G195">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -10784,22 +10464,22 @@
         <v>155</v>
       </c>
       <c r="B196">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C196">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D196">
-        <v>2295757</v>
+        <v>2353061</v>
       </c>
       <c r="E196">
-        <v>9142</v>
+        <v>9333</v>
       </c>
       <c r="F196" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G196">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -10807,22 +10487,22 @@
         <v>155</v>
       </c>
       <c r="B197">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C197">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D197">
-        <v>2353061</v>
+        <v>2405704</v>
       </c>
       <c r="E197">
-        <v>9333</v>
+        <v>9516</v>
       </c>
       <c r="F197" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G197">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -10830,7 +10510,7 @@
         <v>155</v>
       </c>
       <c r="B198">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C198">
         <v>206</v>
@@ -10842,10 +10522,10 @@
         <v>9607</v>
       </c>
       <c r="F198" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G198">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -10853,22 +10533,22 @@
         <v>155</v>
       </c>
       <c r="B199">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C199">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D199">
-        <v>2456603</v>
+        <v>2481487</v>
       </c>
       <c r="E199">
-        <v>9696</v>
+        <v>9785</v>
       </c>
       <c r="F199" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G199">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -10876,22 +10556,22 @@
         <v>155</v>
       </c>
       <c r="B200">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C200">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D200">
-        <v>2481487</v>
+        <v>2565395</v>
       </c>
       <c r="E200">
-        <v>9785</v>
+        <v>10068</v>
       </c>
       <c r="F200" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G200">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -10899,22 +10579,22 @@
         <v>155</v>
       </c>
       <c r="B201">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C201">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D201">
-        <v>2535836</v>
+        <v>2596810</v>
       </c>
       <c r="E201">
-        <v>9971</v>
+        <v>10168</v>
       </c>
       <c r="F201" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G201">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -10922,22 +10602,22 @@
         <v>155</v>
       </c>
       <c r="B202">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C202">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D202">
-        <v>2596810</v>
+        <v>2625762</v>
       </c>
       <c r="E202">
-        <v>10168</v>
+        <v>10264</v>
       </c>
       <c r="F202" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G202">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -10945,22 +10625,22 @@
         <v>155</v>
       </c>
       <c r="B203">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C203">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D203">
-        <v>2625762</v>
+        <v>2684885</v>
       </c>
       <c r="E203">
-        <v>10264</v>
+        <v>10458</v>
       </c>
       <c r="F203" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G203">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -10968,22 +10648,22 @@
         <v>155</v>
       </c>
       <c r="B204">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C204">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D204">
-        <v>2684885</v>
+        <v>2742796</v>
       </c>
       <c r="E204">
-        <v>10458</v>
+        <v>10650</v>
       </c>
       <c r="F204" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G204">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -10991,22 +10671,22 @@
         <v>155</v>
       </c>
       <c r="B205">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C205">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D205">
-        <v>2742796</v>
+        <v>2771748</v>
       </c>
       <c r="E205">
-        <v>10650</v>
+        <v>10746</v>
       </c>
       <c r="F205" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G205">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -11014,22 +10694,22 @@
         <v>155</v>
       </c>
       <c r="B206">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C206">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D206">
-        <v>2801919</v>
+        <v>2832090</v>
       </c>
       <c r="E206">
-        <v>10844</v>
+        <v>10942</v>
       </c>
       <c r="F206" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G206">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -11037,22 +10717,22 @@
         <v>155</v>
       </c>
       <c r="B207">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C207">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D207">
-        <v>2832090</v>
+        <v>2893676</v>
       </c>
       <c r="E207">
-        <v>10942</v>
+        <v>11140</v>
       </c>
       <c r="F207" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G207">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -11060,22 +10740,22 @@
         <v>155</v>
       </c>
       <c r="B208">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C208">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D208">
-        <v>2893676</v>
+        <v>2954025</v>
       </c>
       <c r="E208">
-        <v>11140</v>
+        <v>11336</v>
       </c>
       <c r="F208" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G208">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -11083,22 +10763,22 @@
         <v>155</v>
       </c>
       <c r="B209">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C209">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D209">
-        <v>2954025</v>
+        <v>2984815</v>
       </c>
       <c r="E209">
-        <v>11336</v>
+        <v>11435</v>
       </c>
       <c r="F209" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G209">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -11106,22 +10786,22 @@
         <v>155</v>
       </c>
       <c r="B210">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C210">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D210">
-        <v>2984815</v>
+        <v>3041519</v>
       </c>
       <c r="E210">
-        <v>11435</v>
+        <v>11625</v>
       </c>
       <c r="F210" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G210">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -11129,22 +10809,22 @@
         <v>155</v>
       </c>
       <c r="B211">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C211">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D211">
-        <v>3041519</v>
+        <v>3098823</v>
       </c>
       <c r="E211">
-        <v>11625</v>
+        <v>11816</v>
       </c>
       <c r="F211" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G211">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -11152,22 +10832,22 @@
         <v>155</v>
       </c>
       <c r="B212">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C212">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D212">
-        <v>3098823</v>
+        <v>3127175</v>
       </c>
       <c r="E212">
-        <v>11816</v>
+        <v>11911</v>
       </c>
       <c r="F212" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G212">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -11175,22 +10855,22 @@
         <v>155</v>
       </c>
       <c r="B213">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C213">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D213">
-        <v>3127175</v>
+        <v>3180936</v>
       </c>
       <c r="E213">
-        <v>11911</v>
+        <v>12096</v>
       </c>
       <c r="F213" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G213">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -11198,22 +10878,22 @@
         <v>155</v>
       </c>
       <c r="B214">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C214">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D214">
-        <v>3180936</v>
+        <v>3234697</v>
       </c>
       <c r="E214">
-        <v>12096</v>
+        <v>12281</v>
       </c>
       <c r="F214" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G214">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -11221,22 +10901,22 @@
         <v>155</v>
       </c>
       <c r="B215">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C215">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D215">
-        <v>3234697</v>
+        <v>3262456</v>
       </c>
       <c r="E215">
-        <v>12281</v>
+        <v>12375</v>
       </c>
       <c r="F215" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G215">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -11244,22 +10924,22 @@
         <v>155</v>
       </c>
       <c r="B216">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C216">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D216">
-        <v>3290808</v>
+        <v>3318567</v>
       </c>
       <c r="E216">
-        <v>12470</v>
+        <v>12564</v>
       </c>
       <c r="F216" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G216">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -11267,22 +10947,22 @@
         <v>155</v>
       </c>
       <c r="B217">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C217">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D217">
-        <v>3318567</v>
+        <v>3375871</v>
       </c>
       <c r="E217">
-        <v>12564</v>
+        <v>12755</v>
       </c>
       <c r="F217" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G217">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -11290,22 +10970,22 @@
         <v>155</v>
       </c>
       <c r="B218">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C218">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D218">
-        <v>3375871</v>
+        <v>3432582</v>
       </c>
       <c r="E218">
-        <v>12755</v>
+        <v>12945</v>
       </c>
       <c r="F218" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G218">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -11313,22 +10993,22 @@
         <v>155</v>
       </c>
       <c r="B219">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C219">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D219">
-        <v>3432582</v>
+        <v>3459753</v>
       </c>
       <c r="E219">
-        <v>12945</v>
+        <v>13038</v>
       </c>
       <c r="F219" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G219">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -11336,22 +11016,22 @@
         <v>155</v>
       </c>
       <c r="B220">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C220">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D220">
-        <v>3486343</v>
+        <v>3512358</v>
       </c>
       <c r="E220">
-        <v>13130</v>
+        <v>13221</v>
       </c>
       <c r="F220" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G220">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -11359,22 +11039,22 @@
         <v>155</v>
       </c>
       <c r="B221">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C221">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D221">
-        <v>3537804</v>
+        <v>3563819</v>
       </c>
       <c r="E221">
-        <v>13311</v>
+        <v>13402</v>
       </c>
       <c r="F221" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G221">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -11382,22 +11062,22 @@
         <v>155</v>
       </c>
       <c r="B222">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C222">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D222">
-        <v>3592171</v>
+        <v>3621123</v>
       </c>
       <c r="E222">
-        <v>13497</v>
+        <v>13593</v>
       </c>
       <c r="F222" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G222">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -11405,22 +11085,22 @@
         <v>155</v>
       </c>
       <c r="B223">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C223">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D223">
-        <v>3621123</v>
+        <v>3679646</v>
       </c>
       <c r="E223">
-        <v>13593</v>
+        <v>13786</v>
       </c>
       <c r="F223" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G223">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -11428,22 +11108,22 @@
         <v>155</v>
       </c>
       <c r="B224">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C224">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D224">
-        <v>3679646</v>
+        <v>3734588</v>
       </c>
       <c r="E224">
-        <v>13786</v>
+        <v>13973</v>
       </c>
       <c r="F224" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G224">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -11451,22 +11131,22 @@
         <v>155</v>
       </c>
       <c r="B225">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C225">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D225">
-        <v>3734588</v>
+        <v>3761759</v>
       </c>
       <c r="E225">
-        <v>13973</v>
+        <v>14066</v>
       </c>
       <c r="F225" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G225">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -11474,22 +11154,22 @@
         <v>155</v>
       </c>
       <c r="B226">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C226">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D226">
-        <v>3790111</v>
+        <v>3819063</v>
       </c>
       <c r="E226">
-        <v>14161</v>
+        <v>14257</v>
       </c>
       <c r="F226" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G226">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -11497,22 +11177,22 @@
         <v>155</v>
       </c>
       <c r="B227">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C227">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D227">
-        <v>3846822</v>
+        <v>3875174</v>
       </c>
       <c r="E227">
-        <v>14351</v>
+        <v>14446</v>
       </c>
       <c r="F227" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G227">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -11520,22 +11200,22 @@
         <v>155</v>
       </c>
       <c r="B228">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C228">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D228">
-        <v>3875174</v>
+        <v>3934904</v>
       </c>
       <c r="E228">
-        <v>14446</v>
+        <v>14641</v>
       </c>
       <c r="F228" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G228">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -11543,22 +11223,22 @@
         <v>155</v>
       </c>
       <c r="B229">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C229">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D229">
-        <v>3934904</v>
+        <v>3991665</v>
       </c>
       <c r="E229">
-        <v>14641</v>
+        <v>14831</v>
       </c>
       <c r="F229" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G229">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -11566,22 +11246,22 @@
         <v>155</v>
       </c>
       <c r="B230">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C230">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D230">
-        <v>3991665</v>
+        <v>4018836</v>
       </c>
       <c r="E230">
-        <v>14831</v>
+        <v>14924</v>
       </c>
       <c r="F230" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G230">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -11589,68 +11269,68 @@
         <v>155</v>
       </c>
       <c r="B231">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C231">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D231">
-        <v>4048395</v>
+        <v>4073841</v>
       </c>
       <c r="E231">
-        <v>15021</v>
+        <v>15111</v>
       </c>
       <c r="F231" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G231">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="B232">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="C232">
-        <v>-1</v>
+        <v>146</v>
       </c>
       <c r="D232">
-        <v>1444569</v>
+        <v>0</v>
       </c>
       <c r="E232">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F232" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G232">
-        <v>125</v>
+        <v>405</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="B233">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="C233">
-        <v>-1</v>
+        <v>144</v>
       </c>
       <c r="D233">
-        <v>2067529</v>
+        <v>0</v>
       </c>
       <c r="E233">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F233" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G233">
-        <v>175</v>
+        <v>410</v>
       </c>
       <c r="J233" s="1"/>
     </row>
@@ -11659,22 +11339,22 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C234">
         <v>-1</v>
       </c>
       <c r="D234">
-        <v>2791759</v>
+        <v>1444569</v>
       </c>
       <c r="E234">
         <v>-1</v>
       </c>
       <c r="F234" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G234">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="J234" s="1"/>
     </row>
@@ -11682,41 +11362,46 @@
       <c r="A235" t="s">
         <v>239</v>
       </c>
-      <c r="B235" t="s">
-        <v>239</v>
+      <c r="B235">
+        <v>175</v>
       </c>
       <c r="C235">
         <v>-1</v>
       </c>
       <c r="D235">
-        <v>3363834</v>
+        <v>2067529</v>
       </c>
       <c r="E235">
         <v>-1</v>
       </c>
       <c r="F235" t="s">
-        <v>6</v>
-      </c>
-      <c r="J235" s="1"/>
+        <v>241</v>
+      </c>
+      <c r="G235">
+        <v>175</v>
+      </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>239</v>
       </c>
-      <c r="B236" t="s">
-        <v>239</v>
+      <c r="B236">
+        <v>250</v>
       </c>
       <c r="C236">
         <v>-1</v>
       </c>
       <c r="D236">
-        <v>4084681</v>
+        <v>2791759</v>
       </c>
       <c r="E236">
         <v>-1</v>
       </c>
       <c r="F236" t="s">
-        <v>72</v>
+        <v>242</v>
+      </c>
+      <c r="G236">
+        <v>250</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -11730,12 +11415,52 @@
         <v>-1</v>
       </c>
       <c r="D237">
-        <v>4073841</v>
+        <v>3363834</v>
       </c>
       <c r="E237">
         <v>-1</v>
       </c>
       <c r="F237" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238" t="s">
+        <v>239</v>
+      </c>
+      <c r="C238">
+        <v>-1</v>
+      </c>
+      <c r="D238">
+        <v>4084681</v>
+      </c>
+      <c r="E238">
+        <v>-1</v>
+      </c>
+      <c r="F238" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239" t="s">
+        <v>239</v>
+      </c>
+      <c r="C239">
+        <v>-1</v>
+      </c>
+      <c r="D239">
+        <v>4073841</v>
+      </c>
+      <c r="E239">
+        <v>-1</v>
+      </c>
+      <c r="F239" t="s">
         <v>155</v>
       </c>
     </row>
